--- a/Многомерный анализ и прогнозирование/лаб 1/Данные.xlsx
+++ b/Многомерный анализ и прогнозирование/лаб 1/Данные.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\7 сем\7_sem\Многомерный анализ и прогнозирование\лаб 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4 курс\7 сем\_repo\Многомерный анализ и прогнозирование\лаб 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD7B7D3-613A-4AA1-8C8B-1B307A7BBDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Итоги" sheetId="7" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="функционал качества" sheetId="5" r:id="rId3"/>
     <sheet name="Графики" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
   <si>
     <t>Алтайский край</t>
   </si>
@@ -384,12 +383,18 @@
   <si>
     <t>Наименование</t>
   </si>
+  <si>
+    <t>Ward Python</t>
+  </si>
+  <si>
+    <t>Kmeans Python</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,8 +460,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,6 +488,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,7 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -542,12 +558,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_Итоги" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный_Итоги" xfId="1"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="36">
     <dxf>
       <font>
         <b val="0"/>
@@ -564,21 +589,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -596,7 +607,222 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -647,7 +873,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -666,21 +891,43 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -718,20 +965,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -769,20 +1003,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -820,20 +1041,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -871,20 +1079,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -922,20 +1117,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -973,20 +1155,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1024,275 +1193,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1370,7 +1271,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1669,47 +1570,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
@@ -1737,47 +1597,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="11"/>
@@ -1805,47 +1624,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="12"/>
@@ -1873,47 +1651,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="13"/>
@@ -1941,47 +1678,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2099,7 +1795,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7CA1-4E44-B22C-E507426C45E3}"/>
             </c:ext>
@@ -2215,7 +1911,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7CA1-4E44-B22C-E507426C45E3}"/>
             </c:ext>
@@ -2331,7 +2027,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7CA1-4E44-B22C-E507426C45E3}"/>
             </c:ext>
@@ -2447,7 +2143,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7CA1-4E44-B22C-E507426C45E3}"/>
             </c:ext>
@@ -2563,7 +2259,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7CA1-4E44-B22C-E507426C45E3}"/>
             </c:ext>
@@ -2579,11 +2275,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1066642544"/>
-        <c:axId val="-1066635472"/>
+        <c:axId val="251645664"/>
+        <c:axId val="251648384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1066642544"/>
+        <c:axId val="251645664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,7 +2322,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1066635472"/>
+        <c:crossAx val="251648384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2634,7 +2330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1066635472"/>
+        <c:axId val="251648384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,7 +2381,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1066642544"/>
+        <c:crossAx val="251645664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2772,7 +2468,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -3331,6 +3027,87 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>298710</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762625" y="466725"/>
+          <a:ext cx="4680210" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>471844</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876925" y="1905000"/>
+          <a:ext cx="4739044" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3349,7 +3126,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3371,7 +3148,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Максим" refreshedDate="45564.977532870369" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="85" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Максим" refreshedDate="45564.977532870369" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="85">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица2"/>
   </cacheSource>
@@ -5139,7 +4916,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="СводнаяТаблица5" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица5" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:F13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -5558,24 +5335,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица2" displayName="Таблица2" ref="A1:O87" totalsRowCount="1" headerRowDxfId="31" dataDxfId="30" headerRowCellStyle="Обычный_Итоги" dataCellStyle="Обычный_Итоги">
-  <autoFilter ref="A1:O86" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Регион" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cluster Membership-Ward" totalsRowFunction="count" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Cluster Membership-Complete" totalsRowFunction="count" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Cluster Membership-Single" totalsRowFunction="count" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="CLUSTER K-means" totalsRowFunction="count" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="X1" totalsRowFunction="average" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="X2" totalsRowFunction="average" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="X3" totalsRowFunction="average" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="X4" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="X5" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="X6" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="X7" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="X8" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="X9" totalsRowFunction="average" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Расстояние" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Обычный_Итоги">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:Q87" totalsRowCount="1" headerRowDxfId="35" dataDxfId="34" headerRowCellStyle="Обычный_Итоги" dataCellStyle="Обычный_Итоги">
+  <autoFilter ref="A1:Q86"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Регион" dataDxfId="33" totalsRowDxfId="16" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="2" name="Cluster Membership-Ward" totalsRowFunction="count" dataDxfId="32" totalsRowDxfId="15" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="17" name="Ward Python" dataDxfId="18" totalsRowDxfId="14" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="3" name="Cluster Membership-Complete" totalsRowFunction="count" dataDxfId="31" totalsRowDxfId="13" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="4" name="Cluster Membership-Single" totalsRowFunction="count" dataDxfId="30" totalsRowDxfId="12" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="5" name="CLUSTER K-means" totalsRowFunction="count" dataDxfId="29" totalsRowDxfId="11" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="18" name="Kmeans Python" dataDxfId="17" totalsRowDxfId="10" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="6" name="X1" totalsRowFunction="average" dataDxfId="28" totalsRowDxfId="9" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="7" name="X2" totalsRowFunction="average" dataDxfId="27" totalsRowDxfId="8" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="8" name="X3" totalsRowFunction="average" dataDxfId="26" totalsRowDxfId="7" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="9" name="X4" totalsRowFunction="average" dataDxfId="25" totalsRowDxfId="6" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="10" name="X5" totalsRowFunction="average" dataDxfId="24" totalsRowDxfId="5" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="11" name="X6" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="4" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="12" name="X7" totalsRowFunction="average" dataDxfId="22" totalsRowDxfId="3" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="13" name="X8" totalsRowFunction="average" dataDxfId="21" totalsRowDxfId="2" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="14" name="X9" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="1" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="15" name="Расстояние" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="0" dataCellStyle="Обычный_Итоги">
       <calculatedColumnFormula>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5584,9 +5363,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5624,9 +5403,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5661,7 +5440,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5696,7 +5475,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5869,70 +5648,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5940,47 +5729,53 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
         <v>4</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>7</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4">
         <v>0.42372062800000004</v>
       </c>
-      <c r="G2" s="4">
+      <c r="I2" s="4">
         <v>0.43972636300000012</v>
       </c>
-      <c r="H2" s="4">
+      <c r="J2" s="4">
         <v>-0.64695412400000007</v>
       </c>
-      <c r="I2" s="4">
+      <c r="K2" s="4">
         <v>1.6765209300000001</v>
       </c>
-      <c r="J2" s="4">
+      <c r="L2" s="4">
         <v>0.92045771899999995</v>
       </c>
-      <c r="K2" s="4">
+      <c r="M2" s="4">
         <v>-0.83225659899999993</v>
       </c>
-      <c r="L2" s="4">
+      <c r="N2" s="4">
         <v>0.9227996970000002</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>-0.62635309700000008</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>8.9136970900000015E-2</v>
       </c>
-      <c r="O2" s="4">
+      <c r="Q2" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>6.393886853659148</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -5988,47 +5783,53 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>7</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
         <v>1.9327325100000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="I3" s="4">
         <v>1.68731673</v>
       </c>
-      <c r="H3" s="4">
+      <c r="J3" s="4">
         <v>0.72251129600000008</v>
       </c>
-      <c r="I3" s="4">
+      <c r="K3" s="4">
         <v>5.0502227800000007E-2</v>
       </c>
-      <c r="J3" s="4">
+      <c r="L3" s="4">
         <v>1.19273137</v>
       </c>
-      <c r="K3" s="4">
+      <c r="M3" s="4">
         <v>0.517564476</v>
       </c>
-      <c r="L3" s="4">
+      <c r="N3" s="4">
         <v>0.96678615299999993</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.20628363500000002</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>-0.36807421600000007</v>
       </c>
-      <c r="O3" s="4">
+      <c r="Q3" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>9.9102538892762109</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -6036,47 +5837,53 @@
         <v>2</v>
       </c>
       <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>7</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
         <v>-0.66768099000000014</v>
       </c>
-      <c r="G4" s="4">
+      <c r="I4" s="4">
         <v>0.58949993899999997</v>
       </c>
-      <c r="H4" s="4">
+      <c r="J4" s="4">
         <v>1.6408796200000002</v>
       </c>
-      <c r="I4" s="4">
+      <c r="K4" s="4">
         <v>-0.66494600000000015</v>
       </c>
-      <c r="J4" s="4">
+      <c r="L4" s="4">
         <v>0.23560528400000003</v>
       </c>
-      <c r="K4" s="4">
+      <c r="M4" s="4">
         <v>0.15503656900000001</v>
       </c>
-      <c r="L4" s="4">
+      <c r="N4" s="4">
         <v>0.65205465500000015</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>9.5232790300000009E-2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>-0.49870598399999999</v>
       </c>
-      <c r="O4" s="4">
+      <c r="Q4" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>4.6904455959238796</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -6084,47 +5891,53 @@
         <v>2</v>
       </c>
       <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>7</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4">
         <v>9.7352941700000001E-2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="I5" s="4">
         <v>-0.50361191999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="J5" s="4">
         <v>-0.66610846000000012</v>
       </c>
-      <c r="I5" s="4">
+      <c r="K5" s="4">
         <v>-0.27470151199999998</v>
       </c>
-      <c r="J5" s="4">
+      <c r="L5" s="4">
         <v>-0.70761186500000006</v>
       </c>
-      <c r="K5" s="4">
+      <c r="M5" s="4">
         <v>-0.35974921399999998</v>
       </c>
-      <c r="L5" s="4">
+      <c r="N5" s="4">
         <v>-0.37558820100000012</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>-0.57602553900000009</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.56500983900000012</v>
       </c>
-      <c r="O5" s="4">
+      <c r="Q5" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.2045060475669156</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -6132,47 +5945,53 @@
         <v>4</v>
       </c>
       <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
         <v>6</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>7</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4">
         <v>-0.923862077</v>
       </c>
-      <c r="G6" s="4">
+      <c r="I6" s="4">
         <v>-0.52321579099999993</v>
       </c>
-      <c r="H6" s="4">
+      <c r="J6" s="4">
         <v>-0.73026632199999997</v>
       </c>
-      <c r="I6" s="4">
+      <c r="K6" s="4">
         <v>-0.53486450399999996</v>
       </c>
-      <c r="J6" s="4">
+      <c r="L6" s="4">
         <v>1.82597743</v>
       </c>
-      <c r="K6" s="4">
+      <c r="M6" s="4">
         <v>-0.22291394800000003</v>
       </c>
-      <c r="L6" s="4">
+      <c r="N6" s="4">
         <v>-0.84268107800000014</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>-3.9177869100000012E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>0.72363412800000004</v>
       </c>
-      <c r="O6" s="4">
+      <c r="Q6" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>6.5658216998164649</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -6180,47 +5999,53 @@
         <v>2</v>
       </c>
       <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>7</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4">
         <v>-1.5871254399999999</v>
       </c>
-      <c r="G7" s="4">
+      <c r="I7" s="4">
         <v>0.75495661200000019</v>
       </c>
-      <c r="H7" s="4">
+      <c r="J7" s="4">
         <v>-0.26029620599999997</v>
       </c>
-      <c r="I7" s="4">
+      <c r="K7" s="4">
         <v>1.4813986800000001</v>
       </c>
-      <c r="J7" s="4">
+      <c r="L7" s="4">
         <v>4.6729090700000003E-2</v>
       </c>
-      <c r="K7" s="4">
+      <c r="M7" s="4">
         <v>-0.40347473700000008</v>
       </c>
-      <c r="L7" s="4">
+      <c r="N7" s="4">
         <v>-0.111932843</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>-0.28402786000000008</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>-0.35874337500000003</v>
       </c>
-      <c r="O7" s="4">
+      <c r="Q7" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>5.7380958792916532</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -6228,47 +6053,53 @@
         <v>2</v>
       </c>
       <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
         <v>4</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>7</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>5</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4">
         <v>1.3185997700000001</v>
       </c>
-      <c r="G8" s="4">
+      <c r="I8" s="4">
         <v>0.88904709100000001</v>
       </c>
-      <c r="H8" s="4">
+      <c r="J8" s="4">
         <v>0.62094965000000024</v>
       </c>
-      <c r="I8" s="4">
+      <c r="K8" s="4">
         <v>1.15619494</v>
       </c>
-      <c r="J8" s="4">
+      <c r="L8" s="4">
         <v>0.40229727599999998</v>
       </c>
-      <c r="K8" s="4">
+      <c r="M8" s="4">
         <v>-0.406735079</v>
       </c>
-      <c r="L8" s="4">
+      <c r="N8" s="4">
         <v>-0.33208586300000015</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>-0.47475891000000003</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>-0.48004430200000003</v>
       </c>
-      <c r="O8" s="4">
+      <c r="Q8" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>5.1448713876240886</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -6276,47 +6107,53 @@
         <v>2</v>
       </c>
       <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
         <v>6</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>7</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4">
         <v>-0.20444943500000007</v>
       </c>
-      <c r="G9" s="4">
+      <c r="I9" s="4">
         <v>-0.35070172399999999</v>
       </c>
-      <c r="H9" s="4">
+      <c r="J9" s="4">
         <v>-0.881749161</v>
       </c>
-      <c r="I9" s="4">
+      <c r="K9" s="4">
         <v>-0.14462001599999999</v>
       </c>
-      <c r="J9" s="4">
+      <c r="L9" s="4">
         <v>-0.45437704700000003</v>
       </c>
-      <c r="K9" s="4">
+      <c r="M9" s="4">
         <v>-0.492329036</v>
       </c>
-      <c r="L9" s="4">
+      <c r="N9" s="4">
         <v>-0.28864213599999999</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>-0.52441380299999996</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>-4.1714346000000001E-3</v>
       </c>
-      <c r="O9" s="4">
+      <c r="Q9" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>1.7703757037394579</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -6324,47 +6161,53 @@
         <v>2</v>
       </c>
       <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>7</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
         <v>0.73254166500000006</v>
       </c>
-      <c r="G10" s="4">
+      <c r="I10" s="4">
         <v>0.15272568800000003</v>
       </c>
-      <c r="H10" s="4">
+      <c r="J10" s="4">
         <v>1.49399036</v>
       </c>
-      <c r="I10" s="4">
+      <c r="K10" s="4">
         <v>0.50578746299999999</v>
       </c>
-      <c r="J10" s="4">
+      <c r="L10" s="4">
         <v>-0.67548910900000003</v>
       </c>
-      <c r="K10" s="4">
+      <c r="M10" s="4">
         <v>-0.28227851200000004</v>
       </c>
-      <c r="L10" s="4">
+      <c r="N10" s="4">
         <v>0.28266393400000001</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>-0.26916808300000006</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>-0.64799943200000032</v>
       </c>
-      <c r="O10" s="4">
+      <c r="Q10" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>4.1559908948085287</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -6372,47 +6215,53 @@
         <v>4</v>
       </c>
       <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
         <v>6</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>7</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4">
         <v>0.50794454700000002</v>
       </c>
-      <c r="G11" s="4">
+      <c r="I11" s="4">
         <v>-0.41108164700000005</v>
       </c>
-      <c r="H11" s="4">
+      <c r="J11" s="4">
         <v>-0.495335782</v>
       </c>
-      <c r="I11" s="4">
+      <c r="K11" s="4">
         <v>0.37570596800000006</v>
       </c>
-      <c r="J11" s="4">
+      <c r="L11" s="4">
         <v>1.1937933000000001</v>
       </c>
-      <c r="K11" s="4">
+      <c r="M11" s="4">
         <v>-0.38655667300000013</v>
       </c>
-      <c r="L11" s="4">
+      <c r="N11" s="4">
         <v>-0.72450197400000005</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>-7.0487358399999991E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>1.3674621300000001</v>
       </c>
-      <c r="O11" s="4">
+      <c r="Q11" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>4.7879010546763592</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -6420,47 +6269,53 @@
         <v>4</v>
       </c>
       <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>6</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>4</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4">
         <v>-1.26777641</v>
       </c>
-      <c r="G12" s="4">
+      <c r="I12" s="4">
         <v>-1.9590033199999999</v>
       </c>
-      <c r="H12" s="4">
+      <c r="J12" s="4">
         <v>-0.54443133799999999</v>
       </c>
-      <c r="I12" s="4">
+      <c r="K12" s="4">
         <v>0.18058372399999997</v>
       </c>
-      <c r="J12" s="4">
+      <c r="L12" s="4">
         <v>-0.32024784100000003</v>
       </c>
-      <c r="K12" s="4">
+      <c r="M12" s="4">
         <v>0.73188267000000007</v>
       </c>
-      <c r="L12" s="4">
+      <c r="N12" s="4">
         <v>-1.4730913399999999</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>3.21523564</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>3.6255255399999999</v>
       </c>
-      <c r="O12" s="4">
+      <c r="Q12" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>32.064351678043934</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -6468,47 +6323,53 @@
         <v>5</v>
       </c>
       <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
         <v>4</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>7</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>5</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
         <v>1.2449038400000001</v>
       </c>
-      <c r="G13" s="4">
+      <c r="I13" s="4">
         <v>1.03568405</v>
       </c>
-      <c r="H13" s="4">
+      <c r="J13" s="4">
         <v>0.95709095500000008</v>
       </c>
-      <c r="I13" s="4">
+      <c r="K13" s="4">
         <v>2.5220506500000002</v>
       </c>
-      <c r="J13" s="4">
+      <c r="L13" s="4">
         <v>0.90841568099999992</v>
       </c>
-      <c r="K13" s="4">
+      <c r="M13" s="4">
         <v>0.43481244600000007</v>
       </c>
-      <c r="L13" s="4">
+      <c r="N13" s="4">
         <v>0.81689224000000005</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>-0.36419727500000004</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>-0.94658632999999992</v>
       </c>
-      <c r="O13" s="4">
+      <c r="Q13" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>12.609448778618402</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -6516,47 +6377,53 @@
         <v>5</v>
       </c>
       <c r="C14" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D14" s="4">
         <v>7</v>
       </c>
       <c r="E14" s="4">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4">
         <v>5</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4">
         <v>-5.7057576499999998E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="I14" s="4">
         <v>0.69771330799999998</v>
       </c>
-      <c r="H14" s="4">
+      <c r="J14" s="4">
         <v>-0.23193968400000003</v>
       </c>
-      <c r="I14" s="4">
+      <c r="K14" s="4">
         <v>0.96107269899999992</v>
       </c>
-      <c r="J14" s="4">
+      <c r="L14" s="4">
         <v>-0.5569656770000001</v>
       </c>
-      <c r="K14" s="4">
+      <c r="M14" s="4">
         <v>1.34589173</v>
       </c>
-      <c r="L14" s="4">
+      <c r="N14" s="4">
         <v>2.17376675</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>-0.39293840800000002</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>-0.38673589700000005</v>
       </c>
-      <c r="O14" s="4">
+      <c r="Q14" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>8.6183786206490058</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -6564,47 +6431,53 @@
         <v>2</v>
       </c>
       <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
         <v>6</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>7</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4">
         <v>0.23772614000000003</v>
       </c>
-      <c r="G15" s="4">
+      <c r="I15" s="4">
         <v>0.27975877400000004</v>
       </c>
-      <c r="H15" s="4">
+      <c r="J15" s="4">
         <v>0.37694971500000007</v>
       </c>
-      <c r="I15" s="4">
+      <c r="K15" s="4">
         <v>-0.14462001599999999</v>
       </c>
-      <c r="J15" s="4">
+      <c r="L15" s="4">
         <v>-5.8421457400000001E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="M15" s="4">
         <v>-0.38851973100000009</v>
       </c>
-      <c r="L15" s="4">
+      <c r="N15" s="4">
         <v>5.8676998900000006E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>-0.46307900200000002</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>0.17311453600000001</v>
       </c>
-      <c r="O15" s="4">
+      <c r="Q15" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>0.69999916866320588</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -6612,47 +6485,53 @@
         <v>2</v>
       </c>
       <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
         <v>4</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>7</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4">
         <v>0.17455820100000002</v>
       </c>
-      <c r="G16" s="4">
+      <c r="I16" s="4">
         <v>1.0646977799999999</v>
       </c>
-      <c r="H16" s="4">
+      <c r="J16" s="4">
         <v>-2.8161972600000005E-2</v>
       </c>
-      <c r="I16" s="4">
+      <c r="K16" s="4">
         <v>0.31066522000000002</v>
       </c>
-      <c r="J16" s="4">
+      <c r="L16" s="4">
         <v>-0.65752049400000012</v>
       </c>
-      <c r="K16" s="4">
+      <c r="M16" s="4">
         <v>-0.65325570600000016</v>
       </c>
-      <c r="L16" s="4">
+      <c r="N16" s="4">
         <v>0.64938514600000008</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>-0.36120085900000004</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.3690621870000001</v>
       </c>
-      <c r="O16" s="4">
+      <c r="Q16" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.8088081469136594</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -6660,47 +6539,53 @@
         <v>1</v>
       </c>
       <c r="C17" s="4">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4">
         <v>3</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>7</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>4</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
+        <v>3</v>
+      </c>
+      <c r="H17" s="4">
         <v>-1.22917378</v>
       </c>
-      <c r="G17" s="4">
+      <c r="I17" s="4">
         <v>-1.9574350100000002</v>
       </c>
-      <c r="H17" s="4">
+      <c r="J17" s="4">
         <v>-1.9536325300000001</v>
       </c>
-      <c r="I17" s="4">
+      <c r="K17" s="4">
         <v>0.50578746299999999</v>
       </c>
-      <c r="J17" s="4">
+      <c r="L17" s="4">
         <v>-0.20098824800000004</v>
       </c>
-      <c r="K17" s="4">
+      <c r="M17" s="4">
         <v>-0.543854591</v>
       </c>
-      <c r="L17" s="4">
+      <c r="N17" s="4">
         <v>-1.4024521299999999</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>-0.63130635600000007</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>-0.54536018599999991</v>
       </c>
-      <c r="O17" s="4">
+      <c r="Q17" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>12.413932537795384</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -6708,47 +6593,53 @@
         <v>2</v>
       </c>
       <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>7</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4">
         <v>-0.38342526300000013</v>
       </c>
-      <c r="G18" s="4">
+      <c r="I18" s="4">
         <v>-1.26973121</v>
       </c>
-      <c r="H18" s="4">
+      <c r="J18" s="4">
         <v>0.121041336</v>
       </c>
-      <c r="I18" s="4">
+      <c r="K18" s="4">
         <v>1.28627644</v>
       </c>
-      <c r="J18" s="4">
+      <c r="L18" s="4">
         <v>-0.35677594900000004</v>
       </c>
-      <c r="K18" s="4">
+      <c r="M18" s="4">
         <v>-0.29123664799999999</v>
       </c>
-      <c r="L18" s="4">
+      <c r="N18" s="4">
         <v>-0.66571222400000007</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>-0.259445019</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>-0.25610412900000001</v>
       </c>
-      <c r="O18" s="4">
+      <c r="Q18" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>4.2165720346286006</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -6756,47 +6647,53 @@
         <v>2</v>
       </c>
       <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
         <v>6</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>7</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4">
         <v>0.27281944000000002</v>
       </c>
-      <c r="G19" s="4">
+      <c r="I19" s="4">
         <v>0.27505384500000002</v>
       </c>
-      <c r="H19" s="4">
+      <c r="J19" s="4">
         <v>0.27870270800000002</v>
       </c>
-      <c r="I19" s="4">
+      <c r="K19" s="4">
         <v>0.44074671599999998</v>
       </c>
-      <c r="J19" s="4">
+      <c r="L19" s="4">
         <v>-2.0170887899999999</v>
       </c>
-      <c r="K19" s="4">
+      <c r="M19" s="4">
         <v>-0.26798343700000005</v>
       </c>
-      <c r="L19" s="4">
+      <c r="N19" s="4">
         <v>-0.59881140399999999</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>-7.4890255400000022E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>-0.48004430200000003</v>
       </c>
-      <c r="O19" s="4">
+      <c r="Q19" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>5.1571064200729735</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -6804,47 +6701,53 @@
         <v>3</v>
       </c>
       <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
         <v>5</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>7</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>5</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4">
         <v>1.0799653300000001</v>
       </c>
-      <c r="G20" s="4">
+      <c r="I20" s="4">
         <v>0.52912001600000014</v>
       </c>
-      <c r="H20" s="4">
+      <c r="J20" s="4">
         <v>1.50822214</v>
       </c>
-      <c r="I20" s="4">
+      <c r="K20" s="4">
         <v>-1.18527198</v>
       </c>
-      <c r="J20" s="4">
+      <c r="L20" s="4">
         <v>-0.14623000600000002</v>
       </c>
-      <c r="K20" s="4">
+      <c r="M20" s="4">
         <v>2.0575036</v>
       </c>
-      <c r="L20" s="4">
+      <c r="N20" s="4">
         <v>0.68630207499999996</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>1.5007353399999999</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>-0.83461624300000004</v>
       </c>
-      <c r="O20" s="4">
+      <c r="Q20" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>12.800402445326565</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -6852,47 +6755,53 @@
         <v>4</v>
       </c>
       <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4">
         <v>6</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>7</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>4</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4">
         <v>9.0334281799999999E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="I21" s="4">
         <v>-1.79119418</v>
       </c>
-      <c r="H21" s="4">
+      <c r="J21" s="4">
         <v>-1.70438705</v>
       </c>
-      <c r="I21" s="4">
+      <c r="K21" s="4">
         <v>-0.86006824300000007</v>
       </c>
-      <c r="J21" s="4">
+      <c r="L21" s="4">
         <v>-0.90577272399999997</v>
       </c>
-      <c r="K21" s="4">
+      <c r="M21" s="4">
         <v>-0.32222054400000005</v>
       </c>
-      <c r="L21" s="4">
+      <c r="N21" s="4">
         <v>-0.98205152699999998</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>-0.96494810200000003</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>-7.8818158999999999E-2</v>
       </c>
-      <c r="O21" s="4">
+      <c r="Q21" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>9.6872021226572436</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -6900,47 +6809,53 @@
         <v>5</v>
       </c>
       <c r="C22" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D22" s="4">
         <v>7</v>
       </c>
       <c r="E22" s="4">
+        <v>7</v>
+      </c>
+      <c r="F22" s="4">
         <v>3</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
         <v>2.3657012600000003E-2</v>
       </c>
-      <c r="G22" s="4">
+      <c r="I22" s="4">
         <v>1.2521107900000001</v>
       </c>
-      <c r="H22" s="4">
+      <c r="J22" s="4">
         <v>-0.25534752799999999</v>
       </c>
-      <c r="I22" s="4">
+      <c r="K22" s="4">
         <v>-0.404783008</v>
       </c>
-      <c r="J22" s="4">
+      <c r="L22" s="4">
         <v>0.47253002599999999</v>
       </c>
-      <c r="K22" s="4">
+      <c r="M22" s="4">
         <v>4.1703624000000009E-2</v>
       </c>
-      <c r="L22" s="4">
+      <c r="N22" s="4">
         <v>0.68656128599999999</v>
       </c>
-      <c r="M22" s="4">
+      <c r="O22" s="4">
         <v>-0.50172665300000008</v>
       </c>
-      <c r="N22" s="4">
+      <c r="P22" s="4">
         <v>-0.56402186700000012</v>
       </c>
-      <c r="O22" s="4">
+      <c r="Q22" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.0636332457298527</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -6948,47 +6863,53 @@
         <v>2</v>
       </c>
       <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
         <v>4</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>7</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>5</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
         <v>1.29052513</v>
       </c>
-      <c r="G23" s="4">
+      <c r="I23" s="4">
         <v>-0.30914151700000003</v>
       </c>
-      <c r="H23" s="4">
+      <c r="J23" s="4">
         <v>0.87030898200000006</v>
       </c>
-      <c r="I23" s="4">
+      <c r="K23" s="4">
         <v>-0.209660764</v>
       </c>
-      <c r="J23" s="4">
+      <c r="L23" s="4">
         <v>-0.35739780400000004</v>
       </c>
-      <c r="K23" s="4">
+      <c r="M23" s="4">
         <v>-0.32162174800000004</v>
       </c>
-      <c r="L23" s="4">
+      <c r="N23" s="4">
         <v>0.80890720400000005</v>
       </c>
-      <c r="M23" s="4">
+      <c r="O23" s="4">
         <v>-0.58727738699999987</v>
       </c>
-      <c r="N23" s="4">
+      <c r="P23" s="4">
         <v>-0.106810681</v>
       </c>
-      <c r="O23" s="4">
+      <c r="Q23" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.8042268031625897</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -6996,47 +6917,53 @@
         <v>2</v>
       </c>
       <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4">
         <v>4</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <v>7</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <v>5</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
         <v>0.96415744199999998</v>
       </c>
-      <c r="G24" s="4">
+      <c r="I24" s="4">
         <v>-9.8988017899999989E-2</v>
       </c>
-      <c r="H24" s="4">
+      <c r="J24" s="4">
         <v>0.80730002600000006</v>
       </c>
-      <c r="I24" s="4">
+      <c r="K24" s="4">
         <v>-0.27470151199999998</v>
       </c>
-      <c r="J24" s="4">
+      <c r="L24" s="4">
         <v>0.38348349900000012</v>
       </c>
-      <c r="K24" s="4">
+      <c r="M24" s="4">
         <v>-0.31624287500000009</v>
       </c>
-      <c r="L24" s="4">
+      <c r="N24" s="4">
         <v>0.17442340700000003</v>
       </c>
-      <c r="M24" s="4">
+      <c r="O24" s="4">
         <v>-0.47041716400000005</v>
       </c>
-      <c r="N24" s="4">
+      <c r="P24" s="4">
         <v>-0.58268354899999986</v>
       </c>
-      <c r="O24" s="4">
+      <c r="Q24" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.5048975545449186</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -7044,47 +6971,53 @@
         <v>2</v>
       </c>
       <c r="C25" s="4">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4">
         <v>6</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>7</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>1</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4">
         <v>0.160520881</v>
       </c>
-      <c r="G25" s="4">
+      <c r="I25" s="4">
         <v>-0.47459819000000003</v>
       </c>
-      <c r="H25" s="4">
+      <c r="J25" s="4">
         <v>-0.65087464600000022</v>
       </c>
-      <c r="I25" s="4">
+      <c r="K25" s="4">
         <v>5.0502227800000007E-2</v>
       </c>
-      <c r="J25" s="4">
+      <c r="L25" s="4">
         <v>-0.62516647200000008</v>
       </c>
-      <c r="K25" s="4">
+      <c r="M25" s="4">
         <v>-0.4203163190000001</v>
       </c>
-      <c r="L25" s="4">
+      <c r="N25" s="4">
         <v>-1.07668655</v>
       </c>
-      <c r="M25" s="4">
+      <c r="O25" s="4">
         <v>0.42587812000000008</v>
       </c>
-      <c r="N25" s="4">
+      <c r="P25" s="4">
         <v>-0.56402186700000012</v>
       </c>
-      <c r="O25" s="4">
+      <c r="Q25" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.9034443673773915</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -7092,47 +7025,53 @@
         <v>2</v>
       </c>
       <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
         <v>6</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <v>7</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4">
         <v>-4.417627129999999E-3</v>
       </c>
-      <c r="G26" s="4">
+      <c r="I26" s="4">
         <v>-5.2722881900000004E-2</v>
       </c>
-      <c r="H26" s="4">
+      <c r="J26" s="4">
         <v>-0.15717499800000001</v>
       </c>
-      <c r="I26" s="4">
+      <c r="K26" s="4">
         <v>0.57082821100000014</v>
       </c>
-      <c r="J26" s="4">
+      <c r="L26" s="4">
         <v>-0.30171967000000005</v>
       </c>
-      <c r="K26" s="4">
+      <c r="M26" s="4">
         <v>-0.52539041700000011</v>
       </c>
-      <c r="L26" s="4">
+      <c r="N26" s="4">
         <v>0.25748962200000003</v>
       </c>
-      <c r="M26" s="4">
+      <c r="O26" s="4">
         <v>-9.9475254900000028E-3</v>
       </c>
-      <c r="N26" s="4">
+      <c r="P26" s="4">
         <v>-3.2163956200000003E-2</v>
       </c>
-      <c r="O26" s="4">
+      <c r="Q26" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>0.78785227245208</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -7140,47 +7079,53 @@
         <v>5</v>
       </c>
       <c r="C27" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D27" s="4">
         <v>7</v>
       </c>
       <c r="E27" s="4">
+        <v>7</v>
+      </c>
+      <c r="F27" s="4">
         <v>3</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
         <v>0.39213665799999997</v>
       </c>
-      <c r="G27" s="4">
+      <c r="I27" s="4">
         <v>0.52206262199999998</v>
       </c>
-      <c r="H27" s="4">
+      <c r="J27" s="4">
         <v>-0.6005885809999999</v>
       </c>
-      <c r="I27" s="4">
+      <c r="K27" s="4">
         <v>-1.3803942300000001</v>
       </c>
-      <c r="J27" s="4">
+      <c r="L27" s="4">
         <v>1.7100498000000002</v>
       </c>
-      <c r="K27" s="4">
+      <c r="M27" s="4">
         <v>-0.32698536800000011</v>
       </c>
-      <c r="L27" s="4">
+      <c r="N27" s="4">
         <v>1.3188816800000001</v>
       </c>
-      <c r="M27" s="4">
+      <c r="O27" s="4">
         <v>-0.76473859399999999</v>
       </c>
-      <c r="N27" s="4">
+      <c r="P27" s="4">
         <v>-0.45205178100000004</v>
       </c>
-      <c r="O27" s="4">
+      <c r="Q27" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>8.2523299787466176</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -7188,47 +7133,53 @@
         <v>4</v>
       </c>
       <c r="C28" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D28" s="4">
         <v>7</v>
       </c>
       <c r="E28" s="4">
+        <v>7</v>
+      </c>
+      <c r="F28" s="4">
         <v>1</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
+        <v>5</v>
+      </c>
+      <c r="H28" s="4">
         <v>0.45530459800000006</v>
       </c>
-      <c r="G28" s="4">
+      <c r="I28" s="4">
         <v>0.33935454200000009</v>
       </c>
-      <c r="H28" s="4">
+      <c r="J28" s="4">
         <v>-0.55951492699999994</v>
       </c>
-      <c r="I28" s="4">
+      <c r="K28" s="4">
         <v>-1.18527198</v>
       </c>
-      <c r="J28" s="4">
+      <c r="L28" s="4">
         <v>-0.17942408600000004</v>
       </c>
-      <c r="K28" s="4">
+      <c r="M28" s="4">
         <v>-0.32449966100000011</v>
       </c>
-      <c r="L28" s="4">
+      <c r="N28" s="4">
         <v>-0.2803738910000001</v>
       </c>
-      <c r="M28" s="4">
+      <c r="O28" s="4">
         <v>-0.21633332000000002</v>
       </c>
-      <c r="N28" s="4">
+      <c r="P28" s="4">
         <v>1.0502135500000001</v>
       </c>
-      <c r="O28" s="4">
+      <c r="Q28" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.406241559376638</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -7236,47 +7187,53 @@
         <v>2</v>
       </c>
       <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4">
         <v>6</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>7</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4">
         <v>0.14648356100000001</v>
       </c>
-      <c r="G29" s="4">
+      <c r="I29" s="4">
         <v>-5.1154572200000005E-2</v>
       </c>
-      <c r="H29" s="4">
+      <c r="J29" s="4">
         <v>1.01140991</v>
       </c>
-      <c r="I29" s="4">
+      <c r="K29" s="4">
         <v>-1.05519049</v>
       </c>
-      <c r="J29" s="4">
+      <c r="L29" s="4">
         <v>-0.62848776699999997</v>
       </c>
-      <c r="K29" s="4">
+      <c r="M29" s="4">
         <v>-0.27753935699999999</v>
       </c>
-      <c r="L29" s="4">
+      <c r="N29" s="4">
         <v>-0.75517925900000016</v>
       </c>
-      <c r="M29" s="4">
+      <c r="O29" s="4">
         <v>3.6344043699999995E-2</v>
       </c>
-      <c r="N29" s="4">
+      <c r="P29" s="4">
         <v>-1.8796703800000001</v>
       </c>
-      <c r="O29" s="4">
+      <c r="Q29" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>6.7372535080252494</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -7284,47 +7241,53 @@
         <v>5</v>
       </c>
       <c r="C30" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D30" s="4">
         <v>7</v>
       </c>
       <c r="E30" s="4">
+        <v>7</v>
+      </c>
+      <c r="F30" s="4">
         <v>3</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
+        <v>5</v>
+      </c>
+      <c r="H30" s="4">
         <v>-7.9269570900000006E-3</v>
       </c>
-      <c r="G30" s="4">
+      <c r="I30" s="4">
         <v>0.37856228500000011</v>
       </c>
-      <c r="H30" s="4">
+      <c r="J30" s="4">
         <v>-0.47726721999999999</v>
       </c>
-      <c r="I30" s="4">
+      <c r="K30" s="4">
         <v>0.11554297600000001</v>
       </c>
-      <c r="J30" s="4">
+      <c r="L30" s="4">
         <v>1.3303280100000001</v>
       </c>
-      <c r="K30" s="4">
+      <c r="M30" s="4">
         <v>-0.37320126700000006</v>
       </c>
-      <c r="L30" s="4">
+      <c r="N30" s="4">
         <v>-0.60198396499999995</v>
       </c>
-      <c r="M30" s="4">
+      <c r="O30" s="4">
         <v>-6.9019726099999998E-2</v>
       </c>
-      <c r="N30" s="4">
+      <c r="P30" s="4">
         <v>-0.66666111300000019</v>
       </c>
-      <c r="O30" s="4">
+      <c r="Q30" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.105143675171409</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -7332,47 +7295,53 @@
         <v>3</v>
       </c>
       <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
         <v>5</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>7</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>5</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
+        <v>4</v>
+      </c>
+      <c r="H31" s="4">
         <v>1.25894116</v>
       </c>
-      <c r="G31" s="4">
+      <c r="I31" s="4">
         <v>1.01451187</v>
       </c>
-      <c r="H31" s="4">
+      <c r="J31" s="4">
         <v>1.9871433299999999</v>
       </c>
-      <c r="I31" s="4">
+      <c r="K31" s="4">
         <v>-0.46982375600000004</v>
       </c>
-      <c r="J31" s="4">
+      <c r="L31" s="4">
         <v>0.66392929600000028</v>
       </c>
-      <c r="K31" s="4">
+      <c r="M31" s="4">
         <v>2.0997129000000001</v>
       </c>
-      <c r="L31" s="4">
+      <c r="N31" s="4">
         <v>0.57653094699999996</v>
       </c>
-      <c r="M31" s="4">
+      <c r="O31" s="4">
         <v>2.7350752600000003</v>
       </c>
-      <c r="N31" s="4">
+      <c r="P31" s="4">
         <v>-0.44272094000000001</v>
       </c>
-      <c r="O31" s="4">
+      <c r="Q31" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>19.642262967293028</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -7380,47 +7349,53 @@
         <v>2</v>
       </c>
       <c r="C32" s="4">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4">
         <v>6</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>7</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>4</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
+        <v>2</v>
+      </c>
+      <c r="H32" s="4">
         <v>-1.70644266</v>
       </c>
-      <c r="G32" s="4">
+      <c r="I32" s="4">
         <v>-0.6141777530000001</v>
       </c>
-      <c r="H32" s="4">
+      <c r="J32" s="4">
         <v>0.83591338999999998</v>
       </c>
-      <c r="I32" s="4">
+      <c r="K32" s="4">
         <v>0.44074671599999998</v>
       </c>
-      <c r="J32" s="4">
+      <c r="L32" s="4">
         <v>-1.9607228800000001</v>
       </c>
-      <c r="K32" s="4">
+      <c r="M32" s="4">
         <v>-0.18824064600000001</v>
       </c>
-      <c r="L32" s="4">
+      <c r="N32" s="4">
         <v>-1.1508786200000001</v>
       </c>
-      <c r="M32" s="4">
+      <c r="O32" s="4">
         <v>1.07261476</v>
       </c>
-      <c r="N32" s="4">
+      <c r="P32" s="4">
         <v>-1.3758050000000002</v>
       </c>
-      <c r="O32" s="4">
+      <c r="Q32" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>12.429901899851826</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -7428,47 +7403,53 @@
         <v>2</v>
       </c>
       <c r="C33" s="4">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4">
         <v>6</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>7</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>5</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
+        <v>2</v>
+      </c>
+      <c r="H33" s="4">
         <v>0.21316083000000002</v>
       </c>
-      <c r="G33" s="4">
+      <c r="I33" s="4">
         <v>0.52912001600000014</v>
       </c>
-      <c r="H33" s="4">
+      <c r="J33" s="4">
         <v>1.4267796000000001</v>
       </c>
-      <c r="I33" s="4">
+      <c r="K33" s="4">
         <v>0.96107269899999992</v>
       </c>
-      <c r="J33" s="4">
+      <c r="L33" s="4">
         <v>-0.92703060800000003</v>
       </c>
-      <c r="K33" s="4">
+      <c r="M33" s="4">
         <v>0.29396743400000003</v>
       </c>
-      <c r="L33" s="4">
+      <c r="N33" s="4">
         <v>-0.25468531300000002</v>
       </c>
-      <c r="M33" s="4">
+      <c r="O33" s="4">
         <v>0.91300974600000007</v>
       </c>
-      <c r="N33" s="4">
+      <c r="P33" s="4">
         <v>-1.20784987</v>
       </c>
-      <c r="O33" s="4">
+      <c r="Q33" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>6.5879216036588755</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -7482,41 +7463,47 @@
         <v>1</v>
       </c>
       <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
         <v>2</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
+        <v>4</v>
+      </c>
+      <c r="H34" s="4">
         <v>-1.64327472</v>
       </c>
-      <c r="G34" s="4">
+      <c r="I34" s="4">
         <v>0.30642003900000009</v>
       </c>
-      <c r="H34" s="4">
+      <c r="J34" s="4">
         <v>1.61457827</v>
       </c>
-      <c r="I34" s="4">
+      <c r="K34" s="4">
         <v>-0.404783008</v>
       </c>
-      <c r="J34" s="4">
+      <c r="L34" s="4">
         <v>2.6320942500000002</v>
       </c>
-      <c r="K34" s="4">
+      <c r="M34" s="4">
         <v>4.9577248899999997</v>
       </c>
-      <c r="L34" s="4">
+      <c r="N34" s="4">
         <v>1.7300756800000001</v>
       </c>
-      <c r="M34" s="4">
+      <c r="O34" s="4">
         <v>3.0684724000000001</v>
       </c>
-      <c r="N34" s="4">
+      <c r="P34" s="4">
         <v>-2.17825728</v>
       </c>
-      <c r="O34" s="4">
+      <c r="Q34" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>54.22540305123362</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -7524,47 +7511,53 @@
         <v>2</v>
       </c>
       <c r="C35" s="4">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4">
         <v>4</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>7</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
+        <v>5</v>
+      </c>
+      <c r="H35" s="4">
         <v>1.61338348</v>
       </c>
-      <c r="G35" s="4">
+      <c r="I35" s="4">
         <v>0.26093905699999997</v>
       </c>
-      <c r="H35" s="4">
+      <c r="J35" s="4">
         <v>0.10949519200000002</v>
       </c>
-      <c r="I35" s="4">
+      <c r="K35" s="4">
         <v>0.50578746299999999</v>
       </c>
-      <c r="J35" s="4">
+      <c r="L35" s="4">
         <v>-0.33835942800000007</v>
       </c>
-      <c r="K35" s="4">
+      <c r="M35" s="4">
         <v>-0.30907134600000002</v>
       </c>
-      <c r="L35" s="4">
+      <c r="N35" s="4">
         <v>-0.39686442500000008</v>
       </c>
-      <c r="M35" s="4">
+      <c r="O35" s="4">
         <v>7.7743505300000015E-2</v>
       </c>
-      <c r="N35" s="4">
+      <c r="P35" s="4">
         <v>0.42504723100000003</v>
       </c>
-      <c r="O35" s="4">
+      <c r="Q35" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.493128371764985</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -7572,47 +7565,53 @@
         <v>5</v>
       </c>
       <c r="C36" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D36" s="4">
         <v>7</v>
       </c>
       <c r="E36" s="4">
+        <v>7</v>
+      </c>
+      <c r="F36" s="4">
         <v>3</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
         <v>0.98521342199999995</v>
       </c>
-      <c r="G36" s="4">
+      <c r="I36" s="4">
         <v>1.1917308600000001</v>
       </c>
-      <c r="H36" s="4">
+      <c r="J36" s="4">
         <v>0.57496309300000004</v>
       </c>
-      <c r="I36" s="4">
+      <c r="K36" s="4">
         <v>-1.18527198</v>
       </c>
-      <c r="J36" s="4">
+      <c r="L36" s="4">
         <v>0.71891049900000004</v>
       </c>
-      <c r="K36" s="4">
+      <c r="M36" s="4">
         <v>-0.26002790700000006</v>
       </c>
-      <c r="L36" s="4">
+      <c r="N36" s="4">
         <v>0.28291155400000001</v>
       </c>
-      <c r="M36" s="4">
+      <c r="O36" s="4">
         <v>-0.4295069130000001</v>
       </c>
-      <c r="N36" s="4">
+      <c r="P36" s="4">
         <v>-0.74130783800000011</v>
       </c>
-      <c r="O36" s="4">
+      <c r="Q36" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>5.5248194181120622</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -7620,47 +7619,53 @@
         <v>2</v>
       </c>
       <c r="C37" s="4">
+        <v>5</v>
+      </c>
+      <c r="D37" s="4">
         <v>6</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>7</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>1</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
+        <v>5</v>
+      </c>
+      <c r="H37" s="4">
         <v>-0.59749438999999993</v>
       </c>
-      <c r="G37" s="4">
+      <c r="I37" s="4">
         <v>5.70587969E-2</v>
       </c>
-      <c r="H37" s="4">
+      <c r="J37" s="4">
         <v>-0.60732069400000011</v>
       </c>
-      <c r="I37" s="4">
+      <c r="K37" s="4">
         <v>0.44074671599999998</v>
       </c>
-      <c r="J37" s="4">
+      <c r="L37" s="4">
         <v>-0.85303935000000009</v>
       </c>
-      <c r="K37" s="4">
+      <c r="M37" s="4">
         <v>-0.33901589600000009</v>
       </c>
-      <c r="L37" s="4">
+      <c r="N37" s="4">
         <v>-0.62705027800000013</v>
       </c>
-      <c r="M37" s="4">
+      <c r="O37" s="4">
         <v>-6.0641991700000002E-2</v>
       </c>
-      <c r="N37" s="4">
+      <c r="P37" s="4">
         <v>1.10619859</v>
       </c>
-      <c r="O37" s="4">
+      <c r="Q37" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.3865040786689367</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -7668,47 +7673,53 @@
         <v>4</v>
       </c>
       <c r="C38" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D38" s="4">
         <v>7</v>
       </c>
       <c r="E38" s="4">
+        <v>7</v>
+      </c>
+      <c r="F38" s="4">
         <v>1</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
+        <v>5</v>
+      </c>
+      <c r="H38" s="4">
         <v>0.6202431060000001</v>
       </c>
-      <c r="G38" s="4">
+      <c r="I38" s="4">
         <v>-0.16720949000000004</v>
       </c>
-      <c r="H38" s="4">
+      <c r="J38" s="4">
         <v>-0.82160135600000017</v>
       </c>
-      <c r="I38" s="4">
+      <c r="K38" s="4">
         <v>-0.79502749600000011</v>
       </c>
-      <c r="J38" s="4">
+      <c r="L38" s="4">
         <v>0.57503744499999998</v>
       </c>
-      <c r="K38" s="4">
+      <c r="M38" s="4">
         <v>-5.5856836200000003E-2</v>
       </c>
-      <c r="L38" s="4">
+      <c r="N38" s="4">
         <v>-0.38976285700000007</v>
       </c>
-      <c r="M38" s="4">
+      <c r="O38" s="4">
         <v>-0.38407146300000011</v>
       </c>
-      <c r="N38" s="4">
+      <c r="P38" s="4">
         <v>1.5167555699999999</v>
       </c>
-      <c r="O38" s="4">
+      <c r="Q38" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>4.6535195137126326</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -7716,47 +7727,53 @@
         <v>2</v>
       </c>
       <c r="C39" s="4">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4">
         <v>4</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="4">
         <v>7</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>1</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
+        <v>5</v>
+      </c>
+      <c r="H39" s="4">
         <v>-0.81507284800000002</v>
       </c>
-      <c r="G39" s="4">
+      <c r="I39" s="4">
         <v>0.27662215400000001</v>
       </c>
-      <c r="H39" s="4">
+      <c r="J39" s="4">
         <v>-0.52759642200000001</v>
       </c>
-      <c r="I39" s="4">
+      <c r="K39" s="4">
         <v>0.7009097070000001</v>
       </c>
-      <c r="J39" s="4">
+      <c r="L39" s="4">
         <v>0.54407815200000009</v>
       </c>
-      <c r="K39" s="4">
+      <c r="M39" s="4">
         <v>-0.34632205000000005</v>
       </c>
-      <c r="L39" s="4">
+      <c r="N39" s="4">
         <v>0.193112544</v>
       </c>
-      <c r="M39" s="4">
+      <c r="O39" s="4">
         <v>-0.59528821300000001</v>
       </c>
-      <c r="N39" s="4">
+      <c r="P39" s="4">
         <v>-9.7479840099999993E-2</v>
       </c>
-      <c r="O39" s="4">
+      <c r="Q39" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.3276187939336062</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -7764,47 +7781,53 @@
         <v>2</v>
       </c>
       <c r="C40" s="4">
+        <v>5</v>
+      </c>
+      <c r="D40" s="4">
         <v>6</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <v>7</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>1</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
+        <v>5</v>
+      </c>
+      <c r="H40" s="4">
         <v>-0.22901474500000002</v>
       </c>
-      <c r="G40" s="4">
+      <c r="I40" s="4">
         <v>0.30249926400000005</v>
       </c>
-      <c r="H40" s="4">
+      <c r="J40" s="4">
         <v>-0.45805197900000005</v>
       </c>
-      <c r="I40" s="4">
+      <c r="K40" s="4">
         <v>5.0502227800000007E-2</v>
       </c>
-      <c r="J40" s="4">
+      <c r="L40" s="4">
         <v>-0.15703235800000004</v>
       </c>
-      <c r="K40" s="4">
+      <c r="M40" s="4">
         <v>-0.32635331300000009</v>
       </c>
-      <c r="L40" s="4">
+      <c r="N40" s="4">
         <v>-0.59723932299999993</v>
       </c>
-      <c r="M40" s="4">
+      <c r="O40" s="4">
         <v>-0.39177653300000004</v>
       </c>
-      <c r="N40" s="4">
+      <c r="P40" s="4">
         <v>1.2461612</v>
       </c>
-      <c r="O40" s="4">
+      <c r="Q40" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.5505826921321959</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
@@ -7812,47 +7835,53 @@
         <v>5</v>
       </c>
       <c r="C41" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D41" s="4">
         <v>7</v>
       </c>
       <c r="E41" s="4">
+        <v>7</v>
+      </c>
+      <c r="F41" s="4">
         <v>3</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
         <v>0.85887754300000008</v>
       </c>
-      <c r="G41" s="4">
+      <c r="I41" s="4">
         <v>1.5869449100000002</v>
       </c>
-      <c r="H41" s="4">
+      <c r="J41" s="4">
         <v>-0.37651935000000003</v>
       </c>
-      <c r="I41" s="4">
+      <c r="K41" s="4">
         <v>-0.79502749600000011</v>
       </c>
-      <c r="J41" s="4">
+      <c r="L41" s="4">
         <v>1.50784078</v>
       </c>
-      <c r="K41" s="4">
+      <c r="M41" s="4">
         <v>-0.39492728100000007</v>
       </c>
-      <c r="L41" s="4">
+      <c r="N41" s="4">
         <v>-0.10465508300000001</v>
       </c>
-      <c r="M41" s="4">
+      <c r="O41" s="4">
         <v>-0.60158680200000003</v>
       </c>
-      <c r="N41" s="4">
+      <c r="P41" s="4">
         <v>9.8467811399999994E-2</v>
       </c>
-      <c r="O41" s="4">
+      <c r="Q41" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>6.8420069727185551</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -7860,47 +7889,53 @@
         <v>2</v>
       </c>
       <c r="C42" s="4">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4">
         <v>4</v>
       </c>
-      <c r="D42" s="4">
+      <c r="E42" s="4">
         <v>7</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>1</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
+        <v>5</v>
+      </c>
+      <c r="H42" s="4">
         <v>-0.744886249</v>
       </c>
-      <c r="G42" s="4">
+      <c r="I42" s="4">
         <v>0.90943511700000002</v>
       </c>
-      <c r="H42" s="4">
+      <c r="J42" s="4">
         <v>0.16155773400000001</v>
       </c>
-      <c r="I42" s="4">
+      <c r="K42" s="4">
         <v>0.83099120300000018</v>
       </c>
-      <c r="J42" s="4">
+      <c r="L42" s="4">
         <v>-0.39557797200000006</v>
       </c>
-      <c r="K42" s="4">
+      <c r="M42" s="4">
         <v>-0.27002622400000004</v>
       </c>
-      <c r="L42" s="4">
+      <c r="N42" s="4">
         <v>0.184528268</v>
       </c>
-      <c r="M42" s="4">
+      <c r="O42" s="4">
         <v>-0.21437647700000001</v>
       </c>
-      <c r="N42" s="4">
+      <c r="P42" s="4">
         <v>-0.18145740500000002</v>
       </c>
-      <c r="O42" s="4">
+      <c r="Q42" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.4409058754714197</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -7908,47 +7943,53 @@
         <v>2</v>
       </c>
       <c r="C43" s="4">
+        <v>2</v>
+      </c>
+      <c r="D43" s="4">
         <v>4</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>7</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>5</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
+        <v>5</v>
+      </c>
+      <c r="H43" s="4">
         <v>1.2133198700000001</v>
       </c>
-      <c r="G43" s="4">
+      <c r="I43" s="4">
         <v>0.43188481400000012</v>
       </c>
-      <c r="H43" s="4">
+      <c r="J43" s="4">
         <v>0.65788487500000015</v>
       </c>
-      <c r="I43" s="4">
+      <c r="K43" s="4">
         <v>-7.9579268100000003E-2</v>
       </c>
-      <c r="J43" s="4">
+      <c r="L43" s="4">
         <v>-0.39404331100000001</v>
       </c>
-      <c r="K43" s="4">
+      <c r="M43" s="4">
         <v>-0.19134995100000002</v>
       </c>
-      <c r="L43" s="4">
+      <c r="N43" s="4">
         <v>-7.2765406200000021E-2</v>
       </c>
-      <c r="M43" s="4">
+      <c r="O43" s="4">
         <v>0.28070482400000002</v>
       </c>
-      <c r="N43" s="4">
+      <c r="P43" s="4">
         <v>1.44902465E-2</v>
       </c>
-      <c r="O43" s="4">
+      <c r="Q43" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.3739998720413951</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -7956,47 +7997,53 @@
         <v>2</v>
       </c>
       <c r="C44" s="4">
+        <v>2</v>
+      </c>
+      <c r="D44" s="4">
         <v>4</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>7</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>5</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
+        <v>5</v>
+      </c>
+      <c r="H44" s="4">
         <v>0.472851248</v>
       </c>
-      <c r="G44" s="4">
+      <c r="I44" s="4">
         <v>1.4685375199999999</v>
       </c>
-      <c r="H44" s="4">
+      <c r="J44" s="4">
         <v>0.34679126300000002</v>
       </c>
-      <c r="I44" s="4">
+      <c r="K44" s="4">
         <v>0.24562447200000001</v>
       </c>
-      <c r="J44" s="4">
+      <c r="L44" s="4">
         <v>-0.20894640700000006</v>
       </c>
-      <c r="K44" s="4">
+      <c r="M44" s="4">
         <v>-0.28089202900000004</v>
       </c>
-      <c r="L44" s="4">
+      <c r="N44" s="4">
         <v>-3.5065306599999992E-2</v>
       </c>
-      <c r="M44" s="4">
+      <c r="O44" s="4">
         <v>-0.42320832500000005</v>
       </c>
-      <c r="N44" s="4">
+      <c r="P44" s="4">
         <v>-0.43339010000000006</v>
       </c>
-      <c r="O44" s="4">
+      <c r="Q44" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.0515070846700634</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
@@ -8004,47 +8051,53 @@
         <v>4</v>
       </c>
       <c r="C45" s="4">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4">
         <v>6</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>7</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>4</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
+        <v>3</v>
+      </c>
+      <c r="H45" s="4">
         <v>-0.35184129300000005</v>
       </c>
-      <c r="G45" s="4">
+      <c r="I45" s="4">
         <v>-0.88079040200000014</v>
       </c>
-      <c r="H45" s="4">
+      <c r="J45" s="4">
         <v>-1.0232714599999999</v>
       </c>
-      <c r="I45" s="4">
+      <c r="K45" s="4">
         <v>-1.05519049</v>
       </c>
-      <c r="J45" s="4">
+      <c r="L45" s="4">
         <v>4.4369005599999997E-2</v>
       </c>
-      <c r="K45" s="4">
+      <c r="M45" s="4">
         <v>-0.490077504</v>
       </c>
-      <c r="L45" s="4">
+      <c r="N45" s="4">
         <v>-1.0056886</v>
       </c>
-      <c r="M45" s="4">
+      <c r="O45" s="4">
         <v>-8.2656476400000012E-2</v>
       </c>
-      <c r="N45" s="4">
+      <c r="P45" s="4">
         <v>0.48103227400000004</v>
       </c>
-      <c r="O45" s="4">
+      <c r="Q45" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>4.5518737498873696</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
@@ -8052,47 +8105,53 @@
         <v>5</v>
       </c>
       <c r="C46" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D46" s="4">
         <v>7</v>
       </c>
       <c r="E46" s="4">
+        <v>7</v>
+      </c>
+      <c r="F46" s="4">
         <v>5</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
         <v>2.7890090199999999</v>
       </c>
-      <c r="G46" s="4">
+      <c r="I46" s="4">
         <v>0.36366334300000003</v>
       </c>
-      <c r="H46" s="4">
+      <c r="J46" s="4">
         <v>-0.117942434</v>
       </c>
-      <c r="I46" s="4">
+      <c r="K46" s="4">
         <v>0.89603195099999999</v>
       </c>
-      <c r="J46" s="4">
+      <c r="L46" s="4">
         <v>-0.36997067600000011</v>
       </c>
-      <c r="K46" s="4">
+      <c r="M46" s="4">
         <v>0.14099786100000003</v>
       </c>
-      <c r="L46" s="4">
+      <c r="N46" s="4">
         <v>3.0686559400000002</v>
       </c>
-      <c r="M46" s="4">
+      <c r="O46" s="4">
         <v>-0.76161987600000014</v>
       </c>
-      <c r="N46" s="4">
+      <c r="P46" s="4">
         <v>-1.02123305</v>
       </c>
-      <c r="O46" s="4">
+      <c r="Q46" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>19.923995768626028</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
@@ -8100,47 +8159,53 @@
         <v>5</v>
       </c>
       <c r="C47" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D47" s="4">
         <v>7</v>
       </c>
       <c r="E47" s="4">
+        <v>7</v>
+      </c>
+      <c r="F47" s="4">
         <v>3</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
         <v>-0.35885995300000006</v>
       </c>
-      <c r="G47" s="4">
+      <c r="I47" s="4">
         <v>1.04666222</v>
       </c>
-      <c r="H47" s="4">
+      <c r="J47" s="4">
         <v>-2.41346401E-2</v>
       </c>
-      <c r="I47" s="4">
+      <c r="K47" s="4">
         <v>-0.92510899099999999</v>
       </c>
-      <c r="J47" s="4">
+      <c r="L47" s="4">
         <v>1.1089211999999999</v>
       </c>
-      <c r="K47" s="4">
+      <c r="M47" s="4">
         <v>-0.41951327500000007</v>
       </c>
-      <c r="L47" s="4">
+      <c r="N47" s="4">
         <v>4.3383616300000004E-2</v>
       </c>
-      <c r="M47" s="4">
+      <c r="O47" s="4">
         <v>-0.22208154599999999</v>
       </c>
-      <c r="N47" s="4">
+      <c r="P47" s="4">
         <v>8.9136970900000015E-2</v>
       </c>
-      <c r="O47" s="4">
+      <c r="Q47" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.545536761032325</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -8148,47 +8213,53 @@
         <v>2</v>
       </c>
       <c r="C48" s="4">
+        <v>2</v>
+      </c>
+      <c r="D48" s="4">
         <v>4</v>
       </c>
-      <c r="D48" s="4">
+      <c r="E48" s="4">
         <v>7</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>3</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
         <v>5.1731652200000013E-2</v>
       </c>
-      <c r="G48" s="4">
+      <c r="I48" s="4">
         <v>7.7446822900000017E-2</v>
       </c>
-      <c r="H48" s="4">
+      <c r="J48" s="4">
         <v>-9.0668155900000005E-2</v>
       </c>
-      <c r="I48" s="4">
+      <c r="K48" s="4">
         <v>-0.46982375600000004</v>
       </c>
-      <c r="J48" s="4">
+      <c r="L48" s="4">
         <v>-8.9536416399999999E-2</v>
       </c>
-      <c r="K48" s="4">
+      <c r="M48" s="4">
         <v>0.23271178500000003</v>
       </c>
-      <c r="L48" s="4">
+      <c r="N48" s="4">
         <v>1.40954267</v>
       </c>
-      <c r="M48" s="4">
+      <c r="O48" s="4">
         <v>-0.4854603950000001</v>
       </c>
-      <c r="N48" s="4">
+      <c r="P48" s="4">
         <v>-0.28409665100000003</v>
       </c>
-      <c r="O48" s="4">
+      <c r="Q48" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.6029940358170953</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
@@ -8196,47 +8267,53 @@
         <v>1</v>
       </c>
       <c r="C49" s="4">
+        <v>4</v>
+      </c>
+      <c r="D49" s="4">
         <v>3</v>
       </c>
-      <c r="D49" s="4">
+      <c r="E49" s="4">
         <v>7</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <v>4</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
+        <v>3</v>
+      </c>
+      <c r="H49" s="4">
         <v>-1.7520639500000001</v>
       </c>
-      <c r="G49" s="4">
+      <c r="I49" s="4">
         <v>-2.7862866799999999</v>
       </c>
-      <c r="H49" s="4">
+      <c r="J49" s="4">
         <v>-1.8365032800000001</v>
       </c>
-      <c r="I49" s="4">
+      <c r="K49" s="4">
         <v>-0.46982375600000004</v>
       </c>
-      <c r="J49" s="4">
+      <c r="L49" s="4">
         <v>-1.3764473700000002</v>
       </c>
-      <c r="K49" s="4">
+      <c r="M49" s="4">
         <v>-0.58339315599999997</v>
       </c>
-      <c r="L49" s="4">
+      <c r="N49" s="4">
         <v>-1.6563222</v>
       </c>
-      <c r="M49" s="4">
+      <c r="O49" s="4">
         <v>-0.3664598750000001</v>
       </c>
-      <c r="N49" s="4">
+      <c r="P49" s="4">
         <v>-0.629337751</v>
       </c>
-      <c r="O49" s="4">
+      <c r="Q49" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>19.935317220770148</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
@@ -8244,47 +8321,53 @@
         <v>1</v>
       </c>
       <c r="C50" s="4">
+        <v>4</v>
+      </c>
+      <c r="D50" s="4">
         <v>3</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <v>2</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <v>4</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
+        <v>3</v>
+      </c>
+      <c r="H50" s="4">
         <v>-1.84681586</v>
       </c>
-      <c r="G50" s="4">
+      <c r="I50" s="4">
         <v>-3.1438612900000003</v>
       </c>
-      <c r="H50" s="4">
+      <c r="J50" s="4">
         <v>-2.1075927800000001</v>
       </c>
-      <c r="I50" s="4">
+      <c r="K50" s="4">
         <v>4.0830286000000005</v>
       </c>
-      <c r="J50" s="4">
+      <c r="L50" s="4">
         <v>-1.8738750000000002</v>
       </c>
-      <c r="K50" s="4">
+      <c r="M50" s="4">
         <v>-0.392435482</v>
       </c>
-      <c r="L50" s="4">
+      <c r="N50" s="4">
         <v>-1.6018640900000001</v>
       </c>
-      <c r="M50" s="4">
+      <c r="O50" s="4">
         <v>-1.1076753400000001</v>
       </c>
-      <c r="N50" s="4">
+      <c r="P50" s="4">
         <v>-0.79729288099999995</v>
       </c>
-      <c r="O50" s="4">
+      <c r="Q50" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>42.501664791088388</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
@@ -8292,47 +8375,53 @@
         <v>4</v>
       </c>
       <c r="C51" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D51" s="4">
         <v>7</v>
       </c>
       <c r="E51" s="4">
+        <v>7</v>
+      </c>
+      <c r="F51" s="4">
         <v>3</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
         <v>1.8555272500000002</v>
       </c>
-      <c r="G51" s="4">
+      <c r="I51" s="4">
         <v>-0.91999814400000002</v>
       </c>
-      <c r="H51" s="4">
+      <c r="J51" s="4">
         <v>-0.76006442099999993</v>
       </c>
-      <c r="I51" s="4">
+      <c r="K51" s="4">
         <v>-1.8356794600000002</v>
       </c>
-      <c r="J51" s="4">
+      <c r="L51" s="4">
         <v>9.6495824000000008E-2</v>
       </c>
-      <c r="K51" s="4">
+      <c r="M51" s="4">
         <v>-0.40819464599999999</v>
       </c>
-      <c r="L51" s="4">
+      <c r="N51" s="4">
         <v>0.13549243700000005</v>
       </c>
-      <c r="M51" s="4">
+      <c r="O51" s="4">
         <v>-0.91321406299999996</v>
       </c>
-      <c r="N51" s="4">
+      <c r="P51" s="4">
         <v>0.92891261999999997</v>
       </c>
-      <c r="O51" s="4">
+      <c r="Q51" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>10.127926058631388</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
@@ -8340,47 +8429,53 @@
         <v>5</v>
       </c>
       <c r="C52" s="4">
+        <v>2</v>
+      </c>
+      <c r="D52" s="4">
         <v>4</v>
       </c>
-      <c r="D52" s="4">
+      <c r="E52" s="4">
         <v>7</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F52" s="4">
         <v>5</v>
       </c>
-      <c r="F52" s="4">
+      <c r="G52" s="4">
+        <v>2</v>
+      </c>
+      <c r="H52" s="4">
         <v>0.27632877000000011</v>
       </c>
-      <c r="G52" s="4">
+      <c r="I52" s="4">
         <v>1.5649885700000001</v>
       </c>
-      <c r="H52" s="4">
+      <c r="J52" s="4">
         <v>2.4729602900000001</v>
       </c>
-      <c r="I52" s="4">
+      <c r="K52" s="4">
         <v>0.24562447200000001</v>
       </c>
-      <c r="J52" s="4">
+      <c r="L52" s="4">
         <v>0.41351389300000008</v>
       </c>
-      <c r="K52" s="4">
+      <c r="M52" s="4">
         <v>-0.117387142</v>
       </c>
-      <c r="L52" s="4">
+      <c r="N52" s="4">
         <v>1.4155782600000002</v>
       </c>
-      <c r="M52" s="4">
+      <c r="O52" s="4">
         <v>-6.6023310200000004E-2</v>
       </c>
-      <c r="N52" s="4">
+      <c r="P52" s="4">
         <v>-0.27476581</v>
       </c>
-      <c r="O52" s="4">
+      <c r="Q52" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>10.969901408299849</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
@@ -8388,47 +8483,53 @@
         <v>5</v>
       </c>
       <c r="C53" s="4">
+        <v>2</v>
+      </c>
+      <c r="D53" s="4">
         <v>4</v>
       </c>
-      <c r="D53" s="4">
+      <c r="E53" s="4">
         <v>7</v>
       </c>
-      <c r="E53" s="4">
+      <c r="F53" s="4">
         <v>5</v>
       </c>
-      <c r="F53" s="4">
+      <c r="G53" s="4">
+        <v>2</v>
+      </c>
+      <c r="H53" s="4">
         <v>0.56760315600000011</v>
       </c>
-      <c r="G53" s="4">
+      <c r="I53" s="4">
         <v>0.68516683</v>
       </c>
-      <c r="H53" s="4">
+      <c r="J53" s="4">
         <v>2.2105134400000002</v>
       </c>
-      <c r="I53" s="4">
+      <c r="K53" s="4">
         <v>0.37570596800000006</v>
       </c>
-      <c r="J53" s="4">
+      <c r="L53" s="4">
         <v>7.4149650199999996E-4</v>
       </c>
-      <c r="K53" s="4">
+      <c r="M53" s="4">
         <v>0.29822621100000007</v>
       </c>
-      <c r="L53" s="4">
+      <c r="N53" s="4">
         <v>2.1108886400000002</v>
       </c>
-      <c r="M53" s="4">
+      <c r="O53" s="4">
         <v>0.16066473100000001</v>
       </c>
-      <c r="N53" s="4">
+      <c r="P53" s="4">
         <v>-0.50803682399999994</v>
       </c>
-      <c r="O53" s="4">
+      <c r="Q53" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>10.64785641320098</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
@@ -8436,47 +8537,53 @@
         <v>2</v>
       </c>
       <c r="C54" s="4">
+        <v>2</v>
+      </c>
+      <c r="D54" s="4">
         <v>4</v>
       </c>
-      <c r="D54" s="4">
+      <c r="E54" s="4">
         <v>7</v>
       </c>
-      <c r="E54" s="4">
+      <c r="F54" s="4">
         <v>1</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G54" s="4">
+        <v>5</v>
+      </c>
+      <c r="H54" s="4">
         <v>-0.56240109100000002</v>
       </c>
-      <c r="G54" s="4">
+      <c r="I54" s="4">
         <v>0.228004554</v>
       </c>
-      <c r="H54" s="4">
+      <c r="J54" s="4">
         <v>-0.29137967300000012</v>
       </c>
-      <c r="I54" s="4">
+      <c r="K54" s="4">
         <v>1.4813986800000001</v>
       </c>
-      <c r="J54" s="4">
+      <c r="L54" s="4">
         <v>-1.0361509600000001</v>
       </c>
-      <c r="K54" s="4">
+      <c r="M54" s="4">
         <v>-0.990065046</v>
       </c>
-      <c r="L54" s="4">
+      <c r="N54" s="4">
         <v>-0.82696875700000005</v>
       </c>
-      <c r="M54" s="4">
+      <c r="O54" s="4">
         <v>-0.60513357999999995</v>
       </c>
-      <c r="N54" s="4">
+      <c r="P54" s="4">
         <v>-0.55469102700000017</v>
       </c>
-      <c r="O54" s="4">
+      <c r="Q54" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>6.0593089440009553</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>53</v>
       </c>
@@ -8484,47 +8591,53 @@
         <v>2</v>
       </c>
       <c r="C55" s="4">
+        <v>2</v>
+      </c>
+      <c r="D55" s="4">
         <v>6</v>
       </c>
-      <c r="D55" s="4">
+      <c r="E55" s="4">
         <v>7</v>
       </c>
-      <c r="E55" s="4">
+      <c r="F55" s="4">
         <v>1</v>
       </c>
-      <c r="F55" s="4">
+      <c r="G55" s="4">
+        <v>5</v>
+      </c>
+      <c r="H55" s="4">
         <v>0.111390262</v>
       </c>
-      <c r="G55" s="4">
+      <c r="I55" s="4">
         <v>6.872886610000001E-3</v>
       </c>
-      <c r="H55" s="4">
+      <c r="J55" s="4">
         <v>0.36429585399999997</v>
       </c>
-      <c r="I55" s="4">
+      <c r="K55" s="4">
         <v>0.11554297600000001</v>
       </c>
-      <c r="J55" s="4">
+      <c r="L55" s="4">
         <v>0.56647536300000001</v>
       </c>
-      <c r="K55" s="4">
+      <c r="M55" s="4">
         <v>-0.43018876600000011</v>
       </c>
-      <c r="L55" s="4">
+      <c r="N55" s="4">
         <v>-0.29084408400000006</v>
       </c>
-      <c r="M55" s="4">
+      <c r="O55" s="4">
         <v>-0.79910565100000008</v>
       </c>
-      <c r="N55" s="4">
+      <c r="P55" s="4">
         <v>0.20110705700000001</v>
       </c>
-      <c r="O55" s="4">
+      <c r="Q55" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>1.4280775580256098</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
@@ -8532,47 +8645,53 @@
         <v>2</v>
       </c>
       <c r="C56" s="4">
+        <v>2</v>
+      </c>
+      <c r="D56" s="4">
         <v>6</v>
       </c>
-      <c r="D56" s="4">
+      <c r="E56" s="4">
         <v>7</v>
       </c>
-      <c r="E56" s="4">
+      <c r="F56" s="4">
         <v>1</v>
       </c>
-      <c r="F56" s="4">
+      <c r="G56" s="4">
+        <v>5</v>
+      </c>
+      <c r="H56" s="4">
         <v>-0.24656139400000004</v>
       </c>
-      <c r="G56" s="4">
+      <c r="I56" s="4">
         <v>-0.23856758100000003</v>
       </c>
-      <c r="H56" s="4">
+      <c r="J56" s="4">
         <v>-0.25146092100000006</v>
       </c>
-      <c r="I56" s="4">
+      <c r="K56" s="4">
         <v>0.18058372399999997</v>
       </c>
-      <c r="J56" s="4">
+      <c r="L56" s="4">
         <v>0.63684323100000018</v>
       </c>
-      <c r="K56" s="4">
+      <c r="M56" s="4">
         <v>-0.27650776000000005</v>
       </c>
-      <c r="L56" s="4">
+      <c r="N56" s="4">
         <v>-0.28955729500000005</v>
       </c>
-      <c r="M56" s="4">
+      <c r="O56" s="4">
         <v>-0.81616687700000001</v>
       </c>
-      <c r="N56" s="4">
+      <c r="P56" s="4">
         <v>0.826273374</v>
       </c>
-      <c r="O56" s="4">
+      <c r="Q56" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.128275417286944</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
@@ -8580,47 +8699,53 @@
         <v>2</v>
       </c>
       <c r="C57" s="4">
+        <v>2</v>
+      </c>
+      <c r="D57" s="4">
         <v>4</v>
       </c>
-      <c r="D57" s="4">
+      <c r="E57" s="4">
         <v>7</v>
       </c>
-      <c r="E57" s="4">
+      <c r="F57" s="4">
         <v>1</v>
       </c>
-      <c r="F57" s="4">
+      <c r="G57" s="4">
+        <v>5</v>
+      </c>
+      <c r="H57" s="4">
         <v>-0.75190490900000007</v>
       </c>
-      <c r="G57" s="4">
+      <c r="I57" s="4">
         <v>-0.34991756900000009</v>
       </c>
-      <c r="H57" s="4">
+      <c r="J57" s="4">
         <v>9.1210065199999996E-2</v>
       </c>
-      <c r="I57" s="4">
+      <c r="K57" s="4">
         <v>0.76595045500000003</v>
       </c>
-      <c r="J57" s="4">
+      <c r="L57" s="4">
         <v>-0.51961828899999996</v>
       </c>
-      <c r="K57" s="4">
+      <c r="M57" s="4">
         <v>-0.17593093000000004</v>
       </c>
-      <c r="L57" s="4">
+      <c r="N57" s="4">
         <v>1.0766340400000001</v>
       </c>
-      <c r="M57" s="4">
+      <c r="O57" s="4">
         <v>0.86323254999999999</v>
       </c>
-      <c r="N57" s="4">
+      <c r="P57" s="4">
         <v>-6.9487318399999984E-2</v>
       </c>
-      <c r="O57" s="4">
+      <c r="Q57" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.4928973101332255</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
@@ -8628,47 +8753,53 @@
         <v>4</v>
       </c>
       <c r="C58" s="4">
+        <v>5</v>
+      </c>
+      <c r="D58" s="4">
         <v>6</v>
       </c>
-      <c r="D58" s="4">
+      <c r="E58" s="4">
         <v>7</v>
       </c>
-      <c r="E58" s="4">
+      <c r="F58" s="4">
         <v>4</v>
       </c>
-      <c r="F58" s="4">
+      <c r="G58" s="4">
+        <v>3</v>
+      </c>
+      <c r="H58" s="4">
         <v>0.55707516700000004</v>
       </c>
-      <c r="G58" s="4">
+      <c r="I58" s="4">
         <v>-1.1858266399999999</v>
       </c>
-      <c r="H58" s="4">
+      <c r="J58" s="4">
         <v>-1.94006302</v>
       </c>
-      <c r="I58" s="4">
+      <c r="K58" s="4">
         <v>-0.33974226000000007</v>
       </c>
-      <c r="J58" s="4">
+      <c r="L58" s="4">
         <v>-6.6636804300000005E-2</v>
       </c>
-      <c r="K58" s="4">
+      <c r="M58" s="4">
         <v>-0.45068069700000007</v>
       </c>
-      <c r="L58" s="4">
+      <c r="N58" s="4">
         <v>-1.18187858</v>
       </c>
-      <c r="M58" s="4">
+      <c r="O58" s="4">
         <v>-0.63399701600000025</v>
       </c>
-      <c r="N58" s="4">
+      <c r="P58" s="4">
         <v>0.56500983900000012</v>
       </c>
-      <c r="O58" s="4">
+      <c r="Q58" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>7.9213657540405125</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
@@ -8676,47 +8807,53 @@
         <v>2</v>
       </c>
       <c r="C59" s="4">
+        <v>5</v>
+      </c>
+      <c r="D59" s="4">
         <v>6</v>
       </c>
-      <c r="D59" s="4">
+      <c r="E59" s="4">
         <v>7</v>
       </c>
-      <c r="E59" s="4">
+      <c r="F59" s="4">
         <v>1</v>
       </c>
-      <c r="F59" s="4">
+      <c r="G59" s="4">
+        <v>5</v>
+      </c>
+      <c r="H59" s="4">
         <v>-0.39746258300000009</v>
       </c>
-      <c r="G59" s="4">
+      <c r="I59" s="4">
         <v>-0.78277104600000014</v>
       </c>
-      <c r="H59" s="4">
+      <c r="J59" s="4">
         <v>0.36467259600000007</v>
       </c>
-      <c r="I59" s="4">
+      <c r="K59" s="4">
         <v>-0.59990525200000011</v>
       </c>
-      <c r="J59" s="4">
+      <c r="L59" s="4">
         <v>-0.54481951900000003</v>
       </c>
-      <c r="K59" s="4">
+      <c r="M59" s="4">
         <v>-0.202190013</v>
       </c>
-      <c r="L59" s="4">
+      <c r="N59" s="4">
         <v>-0.31399757200000006</v>
       </c>
-      <c r="M59" s="4">
+      <c r="O59" s="4">
         <v>0.209524657</v>
       </c>
-      <c r="N59" s="4">
+      <c r="P59" s="4">
         <v>1.18084531</v>
       </c>
-      <c r="O59" s="4">
+      <c r="Q59" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.1381792422386958</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
@@ -8724,47 +8861,53 @@
         <v>5</v>
       </c>
       <c r="C60" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D60" s="4">
         <v>7</v>
       </c>
       <c r="E60" s="4">
+        <v>7</v>
+      </c>
+      <c r="F60" s="4">
         <v>3</v>
       </c>
-      <c r="F60" s="4">
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4">
         <v>0.88344285300000003</v>
       </c>
-      <c r="G60" s="4">
+      <c r="I60" s="4">
         <v>0.90943511700000002</v>
       </c>
-      <c r="H60" s="4">
+      <c r="J60" s="4">
         <v>-1.4135637700000001</v>
       </c>
-      <c r="I60" s="4">
+      <c r="K60" s="4">
         <v>-1.4538520100000001E-2</v>
       </c>
-      <c r="J60" s="4">
+      <c r="L60" s="4">
         <v>0.39850788000000004</v>
       </c>
-      <c r="K60" s="4">
+      <c r="M60" s="4">
         <v>1.34630413</v>
       </c>
-      <c r="L60" s="4">
+      <c r="N60" s="4">
         <v>3.03072907</v>
       </c>
-      <c r="M60" s="4">
+      <c r="O60" s="4">
         <v>-0.95400201100000004</v>
       </c>
-      <c r="N60" s="4">
+      <c r="P60" s="4">
         <v>-0.51736766499999987</v>
       </c>
-      <c r="O60" s="4">
+      <c r="Q60" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>15.940368580875958</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
@@ -8772,47 +8915,53 @@
         <v>2</v>
       </c>
       <c r="C61" s="4">
+        <v>2</v>
+      </c>
+      <c r="D61" s="4">
         <v>4</v>
       </c>
-      <c r="D61" s="4">
+      <c r="E61" s="4">
         <v>7</v>
       </c>
-      <c r="E61" s="4">
+      <c r="F61" s="4">
         <v>3</v>
       </c>
-      <c r="F61" s="4">
+      <c r="G61" s="4">
+        <v>5</v>
+      </c>
+      <c r="H61" s="4">
         <v>-0.20094010500000004</v>
       </c>
-      <c r="G61" s="4">
+      <c r="I61" s="4">
         <v>0.26093905699999997</v>
       </c>
-      <c r="H61" s="4">
+      <c r="J61" s="4">
         <v>-0.70652796899999992</v>
       </c>
-      <c r="I61" s="4">
+      <c r="K61" s="4">
         <v>-0.404783008</v>
       </c>
-      <c r="J61" s="4">
+      <c r="L61" s="4">
         <v>-0.15948179700000004</v>
       </c>
-      <c r="K61" s="4">
+      <c r="M61" s="4">
         <v>-0.39311099400000005</v>
       </c>
-      <c r="L61" s="4">
+      <c r="N61" s="4">
         <v>0.98303550299999998</v>
       </c>
-      <c r="M61" s="4">
+      <c r="O61" s="4">
         <v>-0.62280631900000005</v>
       </c>
-      <c r="N61" s="4">
+      <c r="P61" s="4">
         <v>-0.84394708400000007</v>
       </c>
-      <c r="O61" s="4">
+      <c r="Q61" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.0179610606263636</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
@@ -8820,47 +8969,53 @@
         <v>4</v>
       </c>
       <c r="C62" s="4">
+        <v>5</v>
+      </c>
+      <c r="D62" s="4">
         <v>6</v>
       </c>
-      <c r="D62" s="4">
+      <c r="E62" s="4">
         <v>7</v>
       </c>
-      <c r="E62" s="4">
+      <c r="F62" s="4">
         <v>4</v>
       </c>
-      <c r="F62" s="4">
+      <c r="G62" s="4">
+        <v>3</v>
+      </c>
+      <c r="H62" s="4">
         <v>-1.2467204300000001</v>
       </c>
-      <c r="G62" s="4">
+      <c r="I62" s="4">
         <v>-0.59065310799999993</v>
       </c>
-      <c r="H62" s="4">
+      <c r="J62" s="4">
         <v>-1.00792375</v>
       </c>
-      <c r="I62" s="4">
+      <c r="K62" s="4">
         <v>5.0502227800000007E-2</v>
       </c>
-      <c r="J62" s="4">
+      <c r="L62" s="4">
         <v>0.35254150100000003</v>
       </c>
-      <c r="K62" s="4">
+      <c r="M62" s="4">
         <v>-0.42732628700000014</v>
       </c>
-      <c r="L62" s="4">
+      <c r="N62" s="4">
         <v>-1.0377178899999999</v>
       </c>
-      <c r="M62" s="4">
+      <c r="O62" s="4">
         <v>-7.4095287900000029E-2</v>
       </c>
-      <c r="N62" s="4">
+      <c r="P62" s="4">
         <v>0.74229580900000014</v>
       </c>
-      <c r="O62" s="4">
+      <c r="Q62" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>4.8618885506375511</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
@@ -8868,47 +9023,53 @@
         <v>2</v>
       </c>
       <c r="C63" s="4">
+        <v>2</v>
+      </c>
+      <c r="D63" s="4">
         <v>6</v>
       </c>
-      <c r="D63" s="4">
+      <c r="E63" s="4">
         <v>7</v>
       </c>
-      <c r="E63" s="4">
+      <c r="F63" s="4">
         <v>1</v>
       </c>
-      <c r="F63" s="4">
+      <c r="G63" s="4">
+        <v>5</v>
+      </c>
+      <c r="H63" s="4">
         <v>1.0694373399999999</v>
       </c>
-      <c r="G63" s="4">
+      <c r="I63" s="4">
         <v>0.21467392099999999</v>
       </c>
-      <c r="H63" s="4">
+      <c r="J63" s="4">
         <v>-0.31361227800000008</v>
       </c>
-      <c r="I63" s="4">
+      <c r="K63" s="4">
         <v>-1.4538520100000001E-2</v>
       </c>
-      <c r="J63" s="4">
+      <c r="L63" s="4">
         <v>4.7188484299999993E-2</v>
       </c>
-      <c r="K63" s="4">
+      <c r="M63" s="4">
         <v>-0.34977747000000003</v>
       </c>
-      <c r="L63" s="4">
+      <c r="N63" s="4">
         <v>-0.69058328499999988</v>
       </c>
-      <c r="M63" s="4">
+      <c r="O63" s="4">
         <v>-0.35208930900000007</v>
       </c>
-      <c r="N63" s="4">
+      <c r="P63" s="4">
         <v>0.25709210100000002</v>
       </c>
-      <c r="O63" s="4">
+      <c r="Q63" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.0798846808109785</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
@@ -8916,47 +9077,53 @@
         <v>2</v>
       </c>
       <c r="C64" s="4">
+        <v>5</v>
+      </c>
+      <c r="D64" s="4">
         <v>6</v>
       </c>
-      <c r="D64" s="4">
+      <c r="E64" s="4">
         <v>7</v>
       </c>
-      <c r="E64" s="4">
+      <c r="F64" s="4">
         <v>1</v>
       </c>
-      <c r="F64" s="4">
+      <c r="G64" s="4">
+        <v>5</v>
+      </c>
+      <c r="H64" s="4">
         <v>-0.16935613500000002</v>
       </c>
-      <c r="G64" s="4">
+      <c r="I64" s="4">
         <v>7.1173584200000015E-2</v>
       </c>
-      <c r="H64" s="4">
+      <c r="J64" s="4">
         <v>-0.51868183900000009</v>
       </c>
-      <c r="I64" s="4">
+      <c r="K64" s="4">
         <v>0.11554297600000001</v>
       </c>
-      <c r="J64" s="4">
+      <c r="L64" s="4">
         <v>-0.75722034300000007</v>
       </c>
-      <c r="K64" s="4">
+      <c r="M64" s="4">
         <v>-0.24965705600000002</v>
       </c>
-      <c r="L64" s="4">
+      <c r="N64" s="4">
         <v>-0.68549507700000012</v>
       </c>
-      <c r="M64" s="4">
+      <c r="O64" s="4">
         <v>-0.21951319000000005</v>
       </c>
-      <c r="N64" s="4">
+      <c r="P64" s="4">
         <v>0.78895001200000014</v>
       </c>
-      <c r="O64" s="4">
+      <c r="Q64" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.0923711650137586</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
@@ -8964,47 +9131,53 @@
         <v>4</v>
       </c>
       <c r="C65" s="4">
+        <v>5</v>
+      </c>
+      <c r="D65" s="4">
         <v>2</v>
       </c>
-      <c r="D65" s="4">
+      <c r="E65" s="4">
         <v>6</v>
       </c>
-      <c r="E65" s="4">
+      <c r="F65" s="4">
         <v>4</v>
       </c>
-      <c r="F65" s="4">
+      <c r="G65" s="4">
+        <v>3</v>
+      </c>
+      <c r="H65" s="4">
         <v>-0.72032093900000005</v>
       </c>
-      <c r="G65" s="4">
+      <c r="I65" s="4">
         <v>-1.24777487</v>
       </c>
-      <c r="H65" s="4">
+      <c r="J65" s="4">
         <v>-0.10152723600000001</v>
       </c>
-      <c r="I65" s="4">
+      <c r="K65" s="4">
         <v>0.83099120300000018</v>
       </c>
-      <c r="J65" s="4">
+      <c r="L65" s="4">
         <v>-1.5011937500000001</v>
       </c>
-      <c r="K65" s="4">
+      <c r="M65" s="4">
         <v>0.13173583500000002</v>
       </c>
-      <c r="L65" s="4">
+      <c r="N65" s="4">
         <v>-1.4581744300000001</v>
       </c>
-      <c r="M65" s="4">
+      <c r="O65" s="4">
         <v>1.3142848800000002</v>
       </c>
-      <c r="N65" s="4">
+      <c r="P65" s="4">
         <v>3.20563771</v>
       </c>
-      <c r="O65" s="4">
+      <c r="Q65" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>19.177326088168495</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
@@ -9012,47 +9185,53 @@
         <v>2</v>
       </c>
       <c r="C66" s="4">
+        <v>5</v>
+      </c>
+      <c r="D66" s="4">
         <v>6</v>
       </c>
-      <c r="D66" s="4">
+      <c r="E66" s="4">
         <v>7</v>
       </c>
-      <c r="E66" s="4">
+      <c r="F66" s="4">
         <v>1</v>
       </c>
-      <c r="F66" s="4">
+      <c r="G66" s="4">
+        <v>5</v>
+      </c>
+      <c r="H66" s="4">
         <v>0.60269645600000021</v>
       </c>
-      <c r="G66" s="4">
+      <c r="I66" s="4">
         <v>-0.132706676</v>
       </c>
-      <c r="H66" s="4">
+      <c r="J66" s="4">
         <v>-0.99080136600000002</v>
       </c>
-      <c r="I66" s="4">
+      <c r="K66" s="4">
         <v>0.44074671599999998</v>
       </c>
-      <c r="J66" s="4">
+      <c r="L66" s="4">
         <v>-0.74290604300000007</v>
       </c>
-      <c r="K66" s="4">
+      <c r="M66" s="4">
         <v>-0.49178011100000002</v>
       </c>
-      <c r="L66" s="4">
+      <c r="N66" s="4">
         <v>-0.41582001400000007</v>
       </c>
-      <c r="M66" s="4">
+      <c r="O66" s="4">
         <v>-0.61302210400000001</v>
       </c>
-      <c r="N66" s="4">
+      <c r="P66" s="4">
         <v>0.49969395499999997</v>
       </c>
-      <c r="O66" s="4">
+      <c r="Q66" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.1489525934349305</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>65</v>
       </c>
@@ -9060,47 +9239,53 @@
         <v>5</v>
       </c>
       <c r="C67" s="4">
+        <v>2</v>
+      </c>
+      <c r="D67" s="4">
         <v>4</v>
       </c>
-      <c r="D67" s="4">
+      <c r="E67" s="4">
         <v>7</v>
       </c>
-      <c r="E67" s="4">
+      <c r="F67" s="4">
         <v>5</v>
       </c>
-      <c r="F67" s="4">
+      <c r="G67" s="4">
+        <v>2</v>
+      </c>
+      <c r="H67" s="4">
         <v>-0.12724417600000001</v>
       </c>
-      <c r="G67" s="4">
+      <c r="I67" s="4">
         <v>0.6326284550000002</v>
       </c>
-      <c r="H67" s="4">
+      <c r="J67" s="4">
         <v>2.2904884000000001</v>
       </c>
-      <c r="I67" s="4">
+      <c r="K67" s="4">
         <v>1.8066024199999999</v>
       </c>
-      <c r="J67" s="4">
+      <c r="L67" s="4">
         <v>7.5180272800000017E-2</v>
       </c>
-      <c r="K67" s="4">
+      <c r="M67" s="4">
         <v>-0.990065046</v>
       </c>
-      <c r="L67" s="4">
+      <c r="N67" s="4">
         <v>1.2052366999999999</v>
       </c>
-      <c r="M67" s="4">
+      <c r="O67" s="4">
         <v>1.6878584600000002</v>
       </c>
-      <c r="N67" s="4">
+      <c r="P67" s="4">
         <v>-1.20784987</v>
       </c>
-      <c r="O67" s="4">
+      <c r="Q67" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>15.672803117354693</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>66</v>
       </c>
@@ -9108,47 +9293,53 @@
         <v>2</v>
       </c>
       <c r="C68" s="4">
+        <v>5</v>
+      </c>
+      <c r="D68" s="4">
         <v>6</v>
       </c>
-      <c r="D68" s="4">
+      <c r="E68" s="4">
         <v>7</v>
       </c>
-      <c r="E68" s="4">
+      <c r="F68" s="4">
         <v>1</v>
       </c>
-      <c r="F68" s="4">
+      <c r="G68" s="4">
+        <v>5</v>
+      </c>
+      <c r="H68" s="4">
         <v>-1.1484591900000001</v>
       </c>
-      <c r="G68" s="4">
+      <c r="I68" s="4">
         <v>0.14409998500000004</v>
       </c>
-      <c r="H68" s="4">
+      <c r="J68" s="4">
         <v>8.6549324699999999E-2</v>
       </c>
-      <c r="I68" s="4">
+      <c r="K68" s="4">
         <v>-0.14462001599999999</v>
       </c>
-      <c r="J68" s="4">
+      <c r="L68" s="4">
         <v>-0.20564438700000004</v>
       </c>
-      <c r="K68" s="4">
+      <c r="M68" s="4">
         <v>-0.25596980000000003</v>
       </c>
-      <c r="L68" s="4">
+      <c r="N68" s="4">
         <v>9.3889379399999997E-3</v>
       </c>
-      <c r="M68" s="4">
+      <c r="O68" s="4">
         <v>0.24597085900000001</v>
       </c>
-      <c r="N68" s="4">
+      <c r="P68" s="4">
         <v>0.45303975199999996</v>
       </c>
-      <c r="O68" s="4">
+      <c r="Q68" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>1.7417740364451202</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>67</v>
       </c>
@@ -9156,47 +9347,53 @@
         <v>2</v>
       </c>
       <c r="C69" s="4">
+        <v>5</v>
+      </c>
+      <c r="D69" s="4">
         <v>6</v>
       </c>
-      <c r="D69" s="4">
+      <c r="E69" s="4">
         <v>7</v>
       </c>
-      <c r="E69" s="4">
+      <c r="F69" s="4">
         <v>4</v>
       </c>
-      <c r="F69" s="4">
+      <c r="G69" s="4">
+        <v>3</v>
+      </c>
+      <c r="H69" s="4">
         <v>0.23421681000000003</v>
       </c>
-      <c r="G69" s="4">
+      <c r="I69" s="4">
         <v>-1.18033755</v>
       </c>
-      <c r="H69" s="4">
+      <c r="J69" s="4">
         <v>-6.6319327399999989E-2</v>
       </c>
-      <c r="I69" s="4">
+      <c r="K69" s="4">
         <v>-0.92510899099999999</v>
       </c>
-      <c r="J69" s="4">
+      <c r="L69" s="4">
         <v>-2.0560790099999999</v>
       </c>
-      <c r="K69" s="4">
+      <c r="M69" s="4">
         <v>-0.990065046</v>
       </c>
-      <c r="L69" s="4">
+      <c r="N69" s="4">
         <v>-0.73475502500000012</v>
       </c>
-      <c r="M69" s="4">
+      <c r="O69" s="4">
         <v>-0.198110218</v>
       </c>
-      <c r="N69" s="4">
+      <c r="P69" s="4">
         <v>0.18244537600000002</v>
       </c>
-      <c r="O69" s="4">
+      <c r="Q69" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>8.1283677557440548</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
@@ -9204,47 +9401,53 @@
         <v>5</v>
       </c>
       <c r="C70" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D70" s="4">
         <v>7</v>
       </c>
       <c r="E70" s="4">
+        <v>7</v>
+      </c>
+      <c r="F70" s="4">
         <v>3</v>
       </c>
-      <c r="F70" s="4">
+      <c r="G70" s="4">
+        <v>1</v>
+      </c>
+      <c r="H70" s="4">
         <v>-1.4945617E-2</v>
       </c>
-      <c r="G70" s="4">
+      <c r="I70" s="4">
         <v>0.9345280720000001</v>
       </c>
-      <c r="H70" s="4">
+      <c r="J70" s="4">
         <v>0.45770386600000001</v>
       </c>
-      <c r="I70" s="4">
+      <c r="K70" s="4">
         <v>0.11554297600000001</v>
       </c>
-      <c r="J70" s="4">
+      <c r="L70" s="4">
         <v>1.48050069</v>
       </c>
-      <c r="K70" s="4">
+      <c r="M70" s="4">
         <v>-0.35600399300000007</v>
       </c>
-      <c r="L70" s="4">
+      <c r="N70" s="4">
         <v>-0.121853329</v>
       </c>
-      <c r="M70" s="4">
+      <c r="O70" s="4">
         <v>-0.33765759100000009</v>
       </c>
-      <c r="N70" s="4">
+      <c r="P70" s="4">
         <v>0.21043789800000004</v>
       </c>
-      <c r="O70" s="4">
+      <c r="Q70" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.5881752244898477</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>69</v>
       </c>
@@ -9252,47 +9455,53 @@
         <v>4</v>
       </c>
       <c r="C71" s="4">
+        <v>5</v>
+      </c>
+      <c r="D71" s="4">
         <v>6</v>
       </c>
-      <c r="D71" s="4">
+      <c r="E71" s="4">
         <v>7</v>
       </c>
-      <c r="E71" s="4">
+      <c r="F71" s="4">
         <v>4</v>
       </c>
-      <c r="F71" s="4">
+      <c r="G71" s="4">
+        <v>3</v>
+      </c>
+      <c r="H71" s="4">
         <v>-0.43606521200000004</v>
       </c>
-      <c r="G71" s="4">
+      <c r="I71" s="4">
         <v>-1.3520674700000002</v>
       </c>
-      <c r="H71" s="4">
+      <c r="J71" s="4">
         <v>-1.1846826399999999</v>
       </c>
-      <c r="I71" s="4">
+      <c r="K71" s="4">
         <v>-1.9007202100000002</v>
       </c>
-      <c r="J71" s="4">
+      <c r="L71" s="4">
         <v>-0.57906373899999997</v>
       </c>
-      <c r="K71" s="4">
+      <c r="M71" s="4">
         <v>-0.50981305200000004</v>
       </c>
-      <c r="L71" s="4">
+      <c r="N71" s="4">
         <v>-1.2265558400000001</v>
       </c>
-      <c r="M71" s="4">
+      <c r="O71" s="4">
         <v>-0.61534585500000016</v>
       </c>
-      <c r="N71" s="4">
+      <c r="P71" s="4">
         <v>-8.8148999499999978E-2</v>
       </c>
-      <c r="O71" s="4">
+      <c r="Q71" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>9.5205337454338803</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>70</v>
       </c>
@@ -9300,47 +9509,53 @@
         <v>5</v>
       </c>
       <c r="C72" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D72" s="4">
         <v>7</v>
       </c>
       <c r="E72" s="4">
+        <v>7</v>
+      </c>
+      <c r="F72" s="4">
         <v>3</v>
       </c>
-      <c r="F72" s="4">
+      <c r="G72" s="4">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4">
         <v>0.20263284100000001</v>
       </c>
-      <c r="G72" s="4">
+      <c r="I72" s="4">
         <v>-0.22445279400000001</v>
       </c>
-      <c r="H72" s="4">
+      <c r="J72" s="4">
         <v>-0.74765173600000023</v>
       </c>
-      <c r="I72" s="4">
+      <c r="K72" s="4">
         <v>0.7009097070000001</v>
       </c>
-      <c r="J72" s="4">
+      <c r="L72" s="4">
         <v>3.3153350700000002</v>
       </c>
-      <c r="K72" s="4">
+      <c r="M72" s="4">
         <v>-0.30518079800000009</v>
       </c>
-      <c r="L72" s="4">
+      <c r="N72" s="4">
         <v>3.1845535299999991E-2</v>
       </c>
-      <c r="M72" s="4">
+      <c r="O72" s="4">
         <v>-0.36762175100000005</v>
       </c>
-      <c r="N72" s="4">
+      <c r="P72" s="4">
         <v>0.63032572300000012</v>
       </c>
-      <c r="O72" s="4">
+      <c r="Q72" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>12.759749014360002</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>71</v>
       </c>
@@ -9348,47 +9563,53 @@
         <v>5</v>
       </c>
       <c r="C73" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D73" s="4">
         <v>7</v>
       </c>
       <c r="E73" s="4">
+        <v>7</v>
+      </c>
+      <c r="F73" s="4">
         <v>3</v>
       </c>
-      <c r="F73" s="4">
+      <c r="G73" s="4">
+        <v>1</v>
+      </c>
+      <c r="H73" s="4">
         <v>0.56058449700000001</v>
       </c>
-      <c r="G73" s="4">
+      <c r="I73" s="4">
         <v>0.93060729800000008</v>
       </c>
-      <c r="H73" s="4">
+      <c r="J73" s="4">
         <v>0.77085671</v>
       </c>
-      <c r="I73" s="4">
+      <c r="K73" s="4">
         <v>5.0502227800000007E-2</v>
       </c>
-      <c r="J73" s="4">
+      <c r="L73" s="4">
         <v>1.9255001899999999</v>
       </c>
-      <c r="K73" s="4">
+      <c r="M73" s="4">
         <v>-0.27596528600000003</v>
       </c>
-      <c r="L73" s="4">
+      <c r="N73" s="4">
         <v>-0.26775315399999994</v>
       </c>
-      <c r="M73" s="4">
+      <c r="O73" s="4">
         <v>-0.35007131400000002</v>
       </c>
-      <c r="N73" s="4">
+      <c r="P73" s="4">
         <v>-0.47071346200000003</v>
       </c>
-      <c r="O73" s="4">
+      <c r="Q73" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>5.9765761239321273</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>72</v>
       </c>
@@ -9396,47 +9617,53 @@
         <v>4</v>
       </c>
       <c r="C74" s="4">
+        <v>5</v>
+      </c>
+      <c r="D74" s="4">
         <v>2</v>
       </c>
-      <c r="D74" s="4">
+      <c r="E74" s="4">
         <v>7</v>
       </c>
-      <c r="E74" s="4">
+      <c r="F74" s="4">
         <v>1</v>
       </c>
-      <c r="F74" s="4">
+      <c r="G74" s="4">
+        <v>3</v>
+      </c>
+      <c r="H74" s="4">
         <v>-1.78013859</v>
       </c>
-      <c r="G74" s="4">
+      <c r="I74" s="4">
         <v>-0.33501862700000012</v>
       </c>
-      <c r="H74" s="4">
+      <c r="J74" s="4">
         <v>-0.33766019000000008</v>
       </c>
-      <c r="I74" s="4">
+      <c r="K74" s="4">
         <v>-0.404783008</v>
       </c>
-      <c r="J74" s="4">
+      <c r="L74" s="4">
         <v>-0.65893388300000011</v>
       </c>
-      <c r="K74" s="4">
+      <c r="M74" s="4">
         <v>0.87357587000000014</v>
       </c>
-      <c r="L74" s="4">
+      <c r="N74" s="4">
         <v>0.17466730200000002</v>
       </c>
-      <c r="M74" s="4">
+      <c r="O74" s="4">
         <v>-0.32267551100000008</v>
       </c>
-      <c r="N74" s="4">
+      <c r="P74" s="4">
         <v>3.2989461200000001</v>
       </c>
-      <c r="O74" s="4">
+      <c r="Q74" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>15.773996885338644</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
@@ -9444,47 +9671,53 @@
         <v>2</v>
       </c>
       <c r="C75" s="4">
+        <v>2</v>
+      </c>
+      <c r="D75" s="4">
         <v>6</v>
       </c>
-      <c r="D75" s="4">
+      <c r="E75" s="4">
         <v>7</v>
       </c>
-      <c r="E75" s="4">
+      <c r="F75" s="4">
         <v>1</v>
       </c>
-      <c r="F75" s="4">
+      <c r="G75" s="4">
+        <v>5</v>
+      </c>
+      <c r="H75" s="4">
         <v>0.48337923700000007</v>
       </c>
-      <c r="G75" s="4">
+      <c r="I75" s="4">
         <v>0.70084992700000015</v>
       </c>
-      <c r="H75" s="4">
+      <c r="J75" s="4">
         <v>-0.29369400200000001</v>
       </c>
-      <c r="I75" s="4">
+      <c r="K75" s="4">
         <v>-1.18527198</v>
       </c>
-      <c r="J75" s="4">
+      <c r="L75" s="4">
         <v>-0.77044171600000011</v>
       </c>
-      <c r="K75" s="4">
+      <c r="M75" s="4">
         <v>-0.34561821300000006</v>
       </c>
-      <c r="L75" s="4">
+      <c r="N75" s="4">
         <v>-0.92851965300000006</v>
       </c>
-      <c r="M75" s="4">
+      <c r="O75" s="4">
         <v>-0.25204570599999998</v>
       </c>
-      <c r="N75" s="4">
+      <c r="P75" s="4">
         <v>-9.7479840099999993E-2</v>
       </c>
-      <c r="O75" s="4">
+      <c r="Q75" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.8641824298753433</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
@@ -9492,47 +9725,53 @@
         <v>4</v>
       </c>
       <c r="C76" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D76" s="4">
         <v>7</v>
       </c>
       <c r="E76" s="4">
+        <v>7</v>
+      </c>
+      <c r="F76" s="4">
         <v>3</v>
       </c>
-      <c r="F76" s="4">
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4">
         <v>2.0064284400000001</v>
       </c>
-      <c r="G76" s="4">
+      <c r="I76" s="4">
         <v>-0.55615029400000005</v>
       </c>
-      <c r="H76" s="4">
+      <c r="J76" s="4">
         <v>-0.28176821100000005</v>
       </c>
-      <c r="I76" s="4">
+      <c r="K76" s="4">
         <v>-1.4454349799999999</v>
       </c>
-      <c r="J76" s="4">
+      <c r="L76" s="4">
         <v>2.2060992499999998</v>
       </c>
-      <c r="K76" s="4">
+      <c r="M76" s="4">
         <v>0.211570693</v>
       </c>
-      <c r="L76" s="4">
+      <c r="N76" s="4">
         <v>0.11162880999999999</v>
       </c>
-      <c r="M76" s="4">
+      <c r="O76" s="4">
         <v>-0.13879341200000003</v>
       </c>
-      <c r="N76" s="4">
+      <c r="P76" s="4">
         <v>0.54634815800000003</v>
       </c>
-      <c r="O76" s="4">
+      <c r="Q76" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>11.745590811997223</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>75</v>
       </c>
@@ -9540,47 +9779,53 @@
         <v>2</v>
       </c>
       <c r="C77" s="4">
+        <v>2</v>
+      </c>
+      <c r="D77" s="4">
         <v>4</v>
       </c>
-      <c r="D77" s="4">
+      <c r="E77" s="4">
         <v>7</v>
       </c>
-      <c r="E77" s="4">
+      <c r="F77" s="4">
         <v>1</v>
       </c>
-      <c r="F77" s="4">
+      <c r="G77" s="4">
+        <v>5</v>
+      </c>
+      <c r="H77" s="4">
         <v>-0.21497742500000003</v>
       </c>
-      <c r="G77" s="4">
+      <c r="I77" s="4">
         <v>-0.11859188899999999</v>
       </c>
-      <c r="H77" s="4">
+      <c r="J77" s="4">
         <v>0.89236232199999987</v>
       </c>
-      <c r="I77" s="4">
+      <c r="K77" s="4">
         <v>0.50578746299999999</v>
       </c>
-      <c r="J77" s="4">
+      <c r="L77" s="4">
         <v>-0.18244978500000003</v>
       </c>
-      <c r="K77" s="4">
+      <c r="M77" s="4">
         <v>-0.35170767400000003</v>
       </c>
-      <c r="L77" s="4">
+      <c r="N77" s="4">
         <v>0.87633297099999996</v>
       </c>
-      <c r="M77" s="4">
+      <c r="O77" s="4">
         <v>-0.52606488899999992</v>
       </c>
-      <c r="N77" s="4">
+      <c r="P77" s="4">
         <v>0.46237059300000011</v>
       </c>
-      <c r="O77" s="4">
+      <c r="Q77" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.5278873215998674</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
@@ -9588,47 +9833,53 @@
         <v>2</v>
       </c>
       <c r="C78" s="4">
+        <v>5</v>
+      </c>
+      <c r="D78" s="4">
         <v>6</v>
       </c>
-      <c r="D78" s="4">
+      <c r="E78" s="4">
         <v>7</v>
       </c>
-      <c r="E78" s="4">
+      <c r="F78" s="4">
         <v>1</v>
       </c>
-      <c r="F78" s="4">
+      <c r="G78" s="4">
+        <v>5</v>
+      </c>
+      <c r="H78" s="4">
         <v>-0.40448124300000005</v>
       </c>
-      <c r="G78" s="4">
+      <c r="I78" s="4">
         <v>0.22016300499999999</v>
       </c>
-      <c r="H78" s="4">
+      <c r="J78" s="4">
         <v>-0.53144245700000003</v>
       </c>
-      <c r="I78" s="4">
+      <c r="K78" s="4">
         <v>-1.4538520100000001E-2</v>
       </c>
-      <c r="J78" s="4">
+      <c r="L78" s="4">
         <v>-0.57220871700000009</v>
       </c>
-      <c r="K78" s="4">
+      <c r="M78" s="4">
         <v>-0.46073117499999999</v>
       </c>
-      <c r="L78" s="4">
+      <c r="N78" s="4">
         <v>-0.22803194000000002</v>
       </c>
-      <c r="M78" s="4">
+      <c r="O78" s="4">
         <v>-0.57504711800000008</v>
       </c>
-      <c r="N78" s="4">
+      <c r="P78" s="4">
         <v>0.57434067900000008</v>
       </c>
-      <c r="O78" s="4">
+      <c r="Q78" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>1.7469602789198322</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
@@ -9636,47 +9887,53 @@
         <v>2</v>
       </c>
       <c r="C79" s="4">
+        <v>2</v>
+      </c>
+      <c r="D79" s="4">
         <v>4</v>
       </c>
-      <c r="D79" s="4">
+      <c r="E79" s="4">
         <v>7</v>
       </c>
-      <c r="E79" s="4">
+      <c r="F79" s="4">
         <v>5</v>
       </c>
-      <c r="F79" s="4">
+      <c r="G79" s="4">
+        <v>2</v>
+      </c>
+      <c r="H79" s="4">
         <v>0.44126727799999999</v>
       </c>
-      <c r="G79" s="4">
+      <c r="I79" s="4">
         <v>0.53147247999999991</v>
       </c>
-      <c r="H79" s="4">
+      <c r="J79" s="4">
         <v>1.13379998</v>
       </c>
-      <c r="I79" s="4">
+      <c r="K79" s="4">
         <v>-0.72998674799999996</v>
       </c>
-      <c r="J79" s="4">
+      <c r="L79" s="4">
         <v>-0.119915781</v>
       </c>
-      <c r="K79" s="4">
+      <c r="M79" s="4">
         <v>0.263057386</v>
       </c>
-      <c r="L79" s="4">
+      <c r="N79" s="4">
         <v>-0.11216400400000001</v>
       </c>
-      <c r="M79" s="4">
+      <c r="O79" s="4">
         <v>0.48036397000000008</v>
       </c>
-      <c r="N79" s="4">
+      <c r="P79" s="4">
         <v>0.62099488200000019</v>
       </c>
-      <c r="O79" s="4">
+      <c r="Q79" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>3.0081067878444201</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
@@ -9684,47 +9941,53 @@
         <v>3</v>
       </c>
       <c r="C80" s="4">
+        <v>1</v>
+      </c>
+      <c r="D80" s="4">
         <v>5</v>
       </c>
-      <c r="D80" s="4">
+      <c r="E80" s="4">
         <v>3</v>
       </c>
-      <c r="E80" s="4">
+      <c r="F80" s="4">
         <v>4</v>
       </c>
-      <c r="F80" s="4">
+      <c r="G80" s="4">
+        <v>3</v>
+      </c>
+      <c r="H80" s="4">
         <v>-0.68873696899999992</v>
       </c>
-      <c r="G80" s="4">
+      <c r="I80" s="4">
         <v>-1.3097231</v>
       </c>
-      <c r="H80" s="4">
+      <c r="J80" s="4">
         <v>9.2038054999999994E-2</v>
       </c>
-      <c r="I80" s="4">
+      <c r="K80" s="4">
         <v>-2.8112906799999999</v>
       </c>
-      <c r="J80" s="4">
+      <c r="L80" s="4">
         <v>-0.7117433070000001</v>
       </c>
-      <c r="K80" s="4">
+      <c r="M80" s="4">
         <v>0.71316304600000002</v>
       </c>
-      <c r="L80" s="4">
+      <c r="N80" s="4">
         <v>-0.41756864900000007</v>
       </c>
-      <c r="M80" s="4">
+      <c r="O80" s="4">
         <v>1.2694609400000001</v>
       </c>
-      <c r="N80" s="4">
+      <c r="P80" s="4">
         <v>-1.1145414600000001</v>
       </c>
-      <c r="O80" s="4">
+      <c r="Q80" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>14.144836888784321</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
@@ -9732,47 +9995,53 @@
         <v>2</v>
       </c>
       <c r="C81" s="4">
+        <v>2</v>
+      </c>
+      <c r="D81" s="4">
         <v>6</v>
       </c>
-      <c r="D81" s="4">
+      <c r="E81" s="4">
         <v>7</v>
       </c>
-      <c r="E81" s="4">
+      <c r="F81" s="4">
         <v>1</v>
       </c>
-      <c r="F81" s="4">
+      <c r="G81" s="4">
+        <v>5</v>
+      </c>
+      <c r="H81" s="4">
         <v>0.27983810000000003</v>
       </c>
-      <c r="G81" s="4">
+      <c r="I81" s="4">
         <v>0.15272568800000003</v>
       </c>
-      <c r="H81" s="4">
+      <c r="J81" s="4">
         <v>-0.3038727140000001</v>
       </c>
-      <c r="I81" s="4">
+      <c r="K81" s="4">
         <v>-0.33974226000000007</v>
       </c>
-      <c r="J81" s="4">
+      <c r="L81" s="4">
         <v>-0.391579232</v>
       </c>
-      <c r="K81" s="4">
+      <c r="M81" s="4">
         <v>-0.40467678000000007</v>
       </c>
-      <c r="L81" s="4">
+      <c r="N81" s="4">
         <v>0.46851433200000003</v>
       </c>
-      <c r="M81" s="4">
+      <c r="O81" s="4">
         <v>-0.41305720100000004</v>
       </c>
-      <c r="N81" s="4">
+      <c r="P81" s="4">
         <v>5.181360870000002E-2</v>
       </c>
-      <c r="O81" s="4">
+      <c r="Q81" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>1.0193020991836885</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
@@ -9780,47 +10049,53 @@
         <v>1</v>
       </c>
       <c r="C82" s="4">
+        <v>4</v>
+      </c>
+      <c r="D82" s="4">
         <v>3</v>
       </c>
-      <c r="D82" s="4">
+      <c r="E82" s="4">
         <v>7</v>
       </c>
-      <c r="E82" s="4">
+      <c r="F82" s="4">
         <v>4</v>
       </c>
-      <c r="F82" s="4">
+      <c r="G82" s="4">
+        <v>3</v>
+      </c>
+      <c r="H82" s="4">
         <v>-2.88557752</v>
       </c>
-      <c r="G82" s="4">
+      <c r="I82" s="4">
         <v>-2.9219454700000003</v>
       </c>
-      <c r="H82" s="4">
+      <c r="J82" s="4">
         <v>-2.23677145</v>
       </c>
-      <c r="I82" s="4">
+      <c r="K82" s="4">
         <v>0.57082821100000014</v>
       </c>
-      <c r="J82" s="4">
+      <c r="L82" s="4">
         <v>-1.04298354</v>
       </c>
-      <c r="K82" s="4">
+      <c r="M82" s="4">
         <v>-0.33739680200000011</v>
       </c>
-      <c r="L82" s="4">
+      <c r="N82" s="4">
         <v>-1.7452983799999999</v>
       </c>
-      <c r="M82" s="4">
+      <c r="O82" s="4">
         <v>-0.60268752600000008</v>
       </c>
-      <c r="N82" s="4">
+      <c r="P82" s="4">
         <v>-2.2833115699999997E-2</v>
       </c>
-      <c r="O82" s="4">
+      <c r="Q82" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>26.804785628859786</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>81</v>
       </c>
@@ -9828,47 +10103,53 @@
         <v>5</v>
       </c>
       <c r="C83" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D83" s="4">
         <v>7</v>
       </c>
       <c r="E83" s="4">
+        <v>7</v>
+      </c>
+      <c r="F83" s="4">
         <v>3</v>
       </c>
-      <c r="F83" s="4">
+      <c r="G83" s="4">
+        <v>5</v>
+      </c>
+      <c r="H83" s="4">
         <v>-0.39746258300000009</v>
       </c>
-      <c r="G83" s="4">
+      <c r="I83" s="4">
         <v>0.27191722500000004</v>
       </c>
-      <c r="H83" s="4">
+      <c r="J83" s="4">
         <v>0.49087905100000001</v>
       </c>
-      <c r="I83" s="4">
+      <c r="K83" s="4">
         <v>0.37570596800000006</v>
       </c>
-      <c r="J83" s="4">
+      <c r="L83" s="4">
         <v>1.76491278</v>
       </c>
-      <c r="K83" s="4">
+      <c r="M83" s="4">
         <v>-0.43700844000000005</v>
       </c>
-      <c r="L83" s="4">
+      <c r="N83" s="4">
         <v>-0.26190862700000006</v>
       </c>
-      <c r="M83" s="4">
+      <c r="O83" s="4">
         <v>-0.77256596699999991</v>
       </c>
-      <c r="N83" s="4">
+      <c r="P83" s="4">
         <v>0.61166404200000013</v>
       </c>
-      <c r="O83" s="4">
+      <c r="Q83" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>4.9595133997503522</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
@@ -9879,44 +10160,50 @@
         <v>1</v>
       </c>
       <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4">
         <v>4</v>
       </c>
-      <c r="E84" s="4">
+      <c r="F84" s="4">
         <v>2</v>
       </c>
-      <c r="F84" s="4">
+      <c r="G84" s="4">
+        <v>4</v>
+      </c>
+      <c r="H84" s="4">
         <v>-2.0924689499999998</v>
       </c>
-      <c r="G84" s="4">
+      <c r="I84" s="4">
         <v>2.0856673899999998</v>
       </c>
-      <c r="H84" s="4">
+      <c r="J84" s="4">
         <v>1.57059013</v>
       </c>
-      <c r="I84" s="4">
+      <c r="K84" s="4">
         <v>0.76595045500000003</v>
       </c>
-      <c r="J84" s="4">
+      <c r="L84" s="4">
         <v>-0.43485067500000013</v>
       </c>
-      <c r="K84" s="4">
+      <c r="M84" s="4">
         <v>4.8022907799999999</v>
       </c>
-      <c r="L84" s="4">
+      <c r="N84" s="4">
         <v>2.3266124499999998</v>
       </c>
-      <c r="M84" s="4">
+      <c r="O84" s="4">
         <v>3.8924256499999998</v>
       </c>
-      <c r="N84" s="4">
+      <c r="P84" s="4">
         <v>-1.9916404700000001</v>
       </c>
-      <c r="O84" s="4">
+      <c r="Q84" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>59.563694763421765</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
@@ -9924,47 +10211,53 @@
         <v>3</v>
       </c>
       <c r="C85" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D85" s="4">
         <v>5</v>
       </c>
       <c r="E85" s="4">
+        <v>5</v>
+      </c>
+      <c r="F85" s="4">
         <v>2</v>
       </c>
-      <c r="F85" s="4">
+      <c r="G85" s="4">
+        <v>4</v>
+      </c>
+      <c r="H85" s="4">
         <v>-1.30286971</v>
       </c>
-      <c r="G85" s="4">
+      <c r="I85" s="4">
         <v>-0.99449285499999995</v>
       </c>
-      <c r="H85" s="4">
+      <c r="J85" s="4">
         <v>0.87550239899999993</v>
       </c>
-      <c r="I85" s="4">
+      <c r="K85" s="4">
         <v>-1.8356794600000002</v>
       </c>
-      <c r="J85" s="4">
+      <c r="L85" s="4">
         <v>-0.16254381000000001</v>
       </c>
-      <c r="K85" s="4">
+      <c r="M85" s="4">
         <v>3.1189489199999998</v>
       </c>
-      <c r="L85" s="4">
+      <c r="N85" s="4">
         <v>0.31438674100000014</v>
       </c>
-      <c r="M85" s="4">
+      <c r="O85" s="4">
         <v>3.70340683</v>
       </c>
-      <c r="N85" s="4">
+      <c r="P85" s="4">
         <v>-2.1502647600000002</v>
       </c>
-      <c r="O85" s="4">
+      <c r="Q85" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>35.014671615955351</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>84</v>
       </c>
@@ -9972,101 +10265,109 @@
         <v>2</v>
       </c>
       <c r="C86" s="4">
+        <v>2</v>
+      </c>
+      <c r="D86" s="4">
         <v>4</v>
       </c>
-      <c r="D86" s="4">
+      <c r="E86" s="4">
         <v>7</v>
       </c>
-      <c r="E86" s="4">
+      <c r="F86" s="4">
         <v>1</v>
       </c>
-      <c r="F86" s="4">
+      <c r="G86" s="4">
+        <v>5</v>
+      </c>
+      <c r="H86" s="4">
         <v>0.413192638</v>
       </c>
-      <c r="G86" s="4">
+      <c r="I86" s="4">
         <v>0.52912001600000014</v>
       </c>
-      <c r="H86" s="4">
+      <c r="J86" s="4">
         <v>0.82581612699999996</v>
       </c>
-      <c r="I86" s="4">
+      <c r="K86" s="4">
         <v>-0.92510899099999999</v>
       </c>
-      <c r="J86" s="4">
+      <c r="L86" s="4">
         <v>-0.3866831770000001</v>
       </c>
-      <c r="K86" s="4">
+      <c r="M86" s="4">
         <v>-0.19871947100000004</v>
       </c>
-      <c r="L86" s="4">
+      <c r="N86" s="4">
         <v>-0.57524232200000003</v>
       </c>
-      <c r="M86" s="4">
+      <c r="O86" s="4">
         <v>-0.19132241899999999</v>
       </c>
-      <c r="N86" s="4">
+      <c r="P86" s="4">
         <v>0.25709210100000002</v>
       </c>
-      <c r="O86" s="4">
+      <c r="Q86" s="4">
         <f>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</f>
         <v>2.611112720783995</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="6">
         <f>SUBTOTAL(103,Таблица2[Cluster Membership-Ward])</f>
         <v>85</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="17"/>
+      <c r="D87" s="6">
         <f>SUBTOTAL(103,Таблица2[Cluster Membership-Complete])</f>
         <v>85</v>
       </c>
-      <c r="D87" s="6">
+      <c r="E87" s="6">
         <f>SUBTOTAL(103,Таблица2[Cluster Membership-Single])</f>
         <v>85</v>
       </c>
-      <c r="E87" s="6">
+      <c r="F87" s="6">
         <f>SUBTOTAL(103,Таблица2[CLUSTER K-means])</f>
         <v>85</v>
       </c>
-      <c r="F87" s="6">
+      <c r="G87" s="19"/>
+      <c r="H87" s="6">
         <f>SUBTOTAL(101,Таблица2[X1])</f>
         <v>1.0094124294593933E-10</v>
       </c>
-      <c r="G87" s="6">
+      <c r="I87" s="6">
         <f>SUBTOTAL(101,Таблица2[X2])</f>
         <v>2.4247058478679529E-10</v>
       </c>
-      <c r="H87" s="6">
+      <c r="J87" s="6">
         <f>SUBTOTAL(101,Таблица2[X3])</f>
         <v>4.5882309716288918E-11</v>
       </c>
-      <c r="I87" s="6">
+      <c r="K87" s="6">
         <f>SUBTOTAL(101,Таблица2[X4])</f>
         <v>-4.705855313268196E-12</v>
       </c>
-      <c r="J87" s="6">
+      <c r="L87" s="6">
         <f>SUBTOTAL(101,Таблица2[X5])</f>
         <v>-9.6447066672980368E-11</v>
       </c>
-      <c r="K87" s="6">
+      <c r="M87" s="6">
         <f>SUBTOTAL(101,Таблица2[X6])</f>
         <v>-1.4117680227468888E-11</v>
       </c>
-      <c r="L87" s="6">
+      <c r="N87" s="6">
         <f>SUBTOTAL(101,Таблица2[X7])</f>
         <v>3.1058820874651407E-11</v>
       </c>
-      <c r="M87" s="6">
+      <c r="O87" s="6">
         <f>SUBTOTAL(101,Таблица2[X8])</f>
         <v>4.2470602525020409E-11</v>
       </c>
-      <c r="N87" s="6">
+      <c r="P87" s="6">
         <f>SUBTOTAL(101,Таблица2[X9])</f>
         <v>-1.4117669125238643E-11</v>
       </c>
-      <c r="O87" s="6">
+      <c r="Q87" s="6">
         <f>SUBTOTAL(109,Таблица2[Расстояние])</f>
         <v>755.99999992232358</v>
       </c>
@@ -10080,20 +10381,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E839C1B9-86EF-41E2-816C-B36DEAE5D1EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>118</v>
       </c>
@@ -10125,7 +10426,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -10157,7 +10458,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -10189,7 +10490,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -10221,7 +10522,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
@@ -10253,7 +10554,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
@@ -10285,7 +10586,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
@@ -10317,7 +10618,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
@@ -10349,7 +10650,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -10381,7 +10682,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
@@ -10413,7 +10714,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
@@ -10445,7 +10746,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
@@ -10477,7 +10778,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
@@ -10509,7 +10810,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
@@ -10541,7 +10842,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
@@ -10573,7 +10874,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
@@ -10605,7 +10906,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
@@ -10637,7 +10938,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
@@ -10669,7 +10970,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
@@ -10701,7 +11002,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
@@ -10733,7 +11034,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
@@ -10765,7 +11066,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
@@ -10797,7 +11098,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
@@ -10829,7 +11130,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>22</v>
       </c>
@@ -10861,7 +11162,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>23</v>
       </c>
@@ -10893,7 +11194,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>24</v>
       </c>
@@ -10925,7 +11226,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>25</v>
       </c>
@@ -10957,7 +11258,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>26</v>
       </c>
@@ -10989,7 +11290,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>27</v>
       </c>
@@ -11021,7 +11322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>28</v>
       </c>
@@ -11053,7 +11354,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>29</v>
       </c>
@@ -11085,7 +11386,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>30</v>
       </c>
@@ -11117,7 +11418,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>31</v>
       </c>
@@ -11149,7 +11450,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>32</v>
       </c>
@@ -11181,7 +11482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>33</v>
       </c>
@@ -11213,7 +11514,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>34</v>
       </c>
@@ -11245,7 +11546,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>35</v>
       </c>
@@ -11277,7 +11578,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>36</v>
       </c>
@@ -11309,7 +11610,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>37</v>
       </c>
@@ -11341,7 +11642,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>38</v>
       </c>
@@ -11373,7 +11674,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>39</v>
       </c>
@@ -11405,7 +11706,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>40</v>
       </c>
@@ -11437,7 +11738,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>41</v>
       </c>
@@ -11469,7 +11770,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>42</v>
       </c>
@@ -11501,7 +11802,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>43</v>
       </c>
@@ -11533,7 +11834,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>44</v>
       </c>
@@ -11565,7 +11866,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>45</v>
       </c>
@@ -11597,7 +11898,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>46</v>
       </c>
@@ -11629,7 +11930,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>47</v>
       </c>
@@ -11661,7 +11962,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>48</v>
       </c>
@@ -11693,7 +11994,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>49</v>
       </c>
@@ -11725,7 +12026,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>50</v>
       </c>
@@ -11757,7 +12058,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>51</v>
       </c>
@@ -11789,7 +12090,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>52</v>
       </c>
@@ -11821,7 +12122,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>53</v>
       </c>
@@ -11853,7 +12154,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>54</v>
       </c>
@@ -11885,7 +12186,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>55</v>
       </c>
@@ -11917,7 +12218,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>56</v>
       </c>
@@ -11949,7 +12250,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>57</v>
       </c>
@@ -11981,7 +12282,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>58</v>
       </c>
@@ -12013,7 +12314,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>59</v>
       </c>
@@ -12045,7 +12346,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>60</v>
       </c>
@@ -12077,7 +12378,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>61</v>
       </c>
@@ -12109,7 +12410,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>62</v>
       </c>
@@ -12141,7 +12442,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>63</v>
       </c>
@@ -12173,7 +12474,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>64</v>
       </c>
@@ -12205,7 +12506,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>65</v>
       </c>
@@ -12237,7 +12538,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>66</v>
       </c>
@@ -12269,7 +12570,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>67</v>
       </c>
@@ -12301,7 +12602,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>68</v>
       </c>
@@ -12333,7 +12634,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>69</v>
       </c>
@@ -12365,7 +12666,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>70</v>
       </c>
@@ -12397,7 +12698,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>71</v>
       </c>
@@ -12429,7 +12730,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>72</v>
       </c>
@@ -12461,7 +12762,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>73</v>
       </c>
@@ -12493,7 +12794,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>74</v>
       </c>
@@ -12525,7 +12826,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>75</v>
       </c>
@@ -12557,7 +12858,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>76</v>
       </c>
@@ -12589,7 +12890,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>77</v>
       </c>
@@ -12621,7 +12922,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>78</v>
       </c>
@@ -12653,7 +12954,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>79</v>
       </c>
@@ -12685,7 +12986,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>80</v>
       </c>
@@ -12717,7 +13018,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>81</v>
       </c>
@@ -12749,7 +13050,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>82</v>
       </c>
@@ -12781,7 +13082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>83</v>
       </c>
@@ -12813,7 +13114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>84</v>
       </c>
@@ -12845,7 +13146,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J88" s="16"/>
     </row>
   </sheetData>
@@ -12854,22 +13155,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>94</v>
       </c>
@@ -12886,7 +13187,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -12903,7 +13204,7 @@
         <v>16.528886210626716</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -12920,7 +13221,7 @@
         <v>129.83856714846348</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -12937,7 +13238,7 @@
         <v>63.57077863205145</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -12954,7 +13255,7 @@
         <v>89.365790129400736</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -12971,7 +13272,7 @@
         <v>110.01182909698962</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -12982,7 +13283,7 @@
         <v>96.163392548052414</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -12993,7 +13294,7 @@
         <v>90.405260257787234</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>112</v>
       </c>
@@ -13016,39 +13317,40 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="45" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="54" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="45" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="54" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="55" max="59" width="12" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="11" bestFit="1" customWidth="1"/>
     <col min="61" max="62" width="12" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="11" bestFit="1" customWidth="1"/>
     <col min="64" max="70" width="12" bestFit="1" customWidth="1"/>
     <col min="71" max="81" width="11" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>108</v>
       </c>
@@ -13068,7 +13370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>106</v>
       </c>
@@ -13088,7 +13390,7 @@
         <v>0.79423199144736834</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
@@ -13108,7 +13410,7 @@
         <v>0.64967350594210538</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>104</v>
       </c>
@@ -13128,7 +13430,7 @@
         <v>1.1478495788947369</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>103</v>
       </c>
@@ -13148,7 +13450,7 @@
         <v>0.2661636549315789</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>102</v>
       </c>
@@ -13168,7 +13470,7 @@
         <v>-5.7146882998947574E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>101</v>
       </c>
@@ -13188,7 +13490,7 @@
         <v>0.2327715196842105</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>100</v>
       </c>
@@ -13208,7 +13510,7 @@
         <v>0.70403903964210546</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>99</v>
       </c>
@@ -13228,7 +13530,7 @@
         <v>0.22561389798947373</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>98</v>
       </c>

--- a/Многомерный анализ и прогнозирование/лаб 1/Данные.xlsx
+++ b/Многомерный анализ и прогнозирование/лаб 1/Данные.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Итоги" sheetId="7" r:id="rId1"/>
@@ -607,6 +607,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -643,6 +644,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -679,6 +681,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -715,6 +718,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -751,6 +755,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -769,6 +774,173 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -842,20 +1014,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -891,7 +1050,77 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -964,236 +1193,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2275,11 +2275,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="251645664"/>
-        <c:axId val="251648384"/>
+        <c:axId val="499905472"/>
+        <c:axId val="499893504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="251645664"/>
+        <c:axId val="499905472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2322,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251648384"/>
+        <c:crossAx val="499893504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2330,7 +2330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251648384"/>
+        <c:axId val="499893504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,7 +2381,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251645664"/>
+        <c:crossAx val="499905472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3126,7 +3126,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5338,23 +5338,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:Q87" totalsRowCount="1" headerRowDxfId="35" dataDxfId="34" headerRowCellStyle="Обычный_Итоги" dataCellStyle="Обычный_Итоги">
   <autoFilter ref="A1:Q86"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Регион" dataDxfId="33" totalsRowDxfId="16" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="2" name="Cluster Membership-Ward" totalsRowFunction="count" dataDxfId="32" totalsRowDxfId="15" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="17" name="Ward Python" dataDxfId="18" totalsRowDxfId="14" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="3" name="Cluster Membership-Complete" totalsRowFunction="count" dataDxfId="31" totalsRowDxfId="13" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="4" name="Cluster Membership-Single" totalsRowFunction="count" dataDxfId="30" totalsRowDxfId="12" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="5" name="CLUSTER K-means" totalsRowFunction="count" dataDxfId="29" totalsRowDxfId="11" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="18" name="Kmeans Python" dataDxfId="17" totalsRowDxfId="10" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="6" name="X1" totalsRowFunction="average" dataDxfId="28" totalsRowDxfId="9" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="7" name="X2" totalsRowFunction="average" dataDxfId="27" totalsRowDxfId="8" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="8" name="X3" totalsRowFunction="average" dataDxfId="26" totalsRowDxfId="7" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="9" name="X4" totalsRowFunction="average" dataDxfId="25" totalsRowDxfId="6" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="10" name="X5" totalsRowFunction="average" dataDxfId="24" totalsRowDxfId="5" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="11" name="X6" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="4" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="12" name="X7" totalsRowFunction="average" dataDxfId="22" totalsRowDxfId="3" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="13" name="X8" totalsRowFunction="average" dataDxfId="21" totalsRowDxfId="2" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="14" name="X9" totalsRowFunction="average" dataDxfId="20" totalsRowDxfId="1" dataCellStyle="Обычный_Итоги"/>
-    <tableColumn id="15" name="Расстояние" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="0" dataCellStyle="Обычный_Итоги">
+    <tableColumn id="1" name="Регион" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="2" name="Cluster Membership-Ward" totalsRowFunction="count" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="17" name="Ward Python" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="3" name="Cluster Membership-Complete" totalsRowFunction="count" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="4" name="Cluster Membership-Single" totalsRowFunction="count" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="5" name="CLUSTER K-means" totalsRowFunction="count" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="18" name="Kmeans Python" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="6" name="X1" totalsRowFunction="average" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="7" name="X2" totalsRowFunction="average" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="8" name="X3" totalsRowFunction="average" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="9" name="X4" totalsRowFunction="average" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="10" name="X5" totalsRowFunction="average" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="11" name="X6" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="12" name="X7" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="13" name="X8" totalsRowFunction="average" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="14" name="X9" totalsRowFunction="average" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Обычный_Итоги"/>
+    <tableColumn id="15" name="Расстояние" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Обычный_Итоги">
       <calculatedColumnFormula>SUMXMY2(Таблица2[[#This Row],[X1]:[X9]],Таблица2[[#Totals],[X1]:[X9]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5651,11 +5651,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" sqref="A1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10385,7 +10385,7 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13158,8 +13158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
